--- a/feedback_report.xlsx
+++ b/feedback_report.xlsx
@@ -8,20 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Original Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Year-Term Analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="Branch Analysis" sheetId="3" r:id="rId3"/>
-    <sheet name="Subject Analysis" sheetId="4" r:id="rId4"/>
-    <sheet name="Faculty Analysis" sheetId="5" r:id="rId5"/>
-    <sheet name="Branch Parameter-wise" sheetId="6" r:id="rId6"/>
-    <sheet name="Subject Parameter-wise" sheetId="7" r:id="rId7"/>
-    <sheet name="Faculty Parameter-wise" sheetId="8" r:id="rId8"/>
+    <sheet name="Faculty Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Subject Analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="Semester Analysis" sheetId="4" r:id="rId4"/>
+    <sheet name="Branch Analysis" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4450" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="141">
   <si>
     <t>Year</t>
   </si>
@@ -341,6 +338,93 @@
     <t>Mr. M J Vadhwania</t>
   </si>
   <si>
+    <t>E&amp;S (4300021)</t>
+  </si>
+  <si>
+    <t>EMI (4331102)</t>
+  </si>
+  <si>
+    <t>FICT (1313201)</t>
+  </si>
+  <si>
+    <t>S&amp;Y (4300015)</t>
+  </si>
+  <si>
+    <t>ES (4351102)</t>
+  </si>
+  <si>
+    <t>PC (4331105)</t>
+  </si>
+  <si>
+    <t>DBMS (1333204)</t>
+  </si>
+  <si>
+    <t>WDP (1313203)</t>
+  </si>
+  <si>
+    <t>MWR (4351103)</t>
+  </si>
+  <si>
+    <t>IE (4331103)</t>
+  </si>
+  <si>
+    <t>SWD (4311603)</t>
+  </si>
+  <si>
+    <t>M&amp;WC (4351104)</t>
+  </si>
+  <si>
+    <t>OPP (4351108)</t>
+  </si>
+  <si>
+    <t>FE (4311102)</t>
+  </si>
+  <si>
+    <t>OSA (1333205)</t>
+  </si>
+  <si>
+    <t>IIS (4311602)</t>
+  </si>
+  <si>
+    <t>SP (4351105)</t>
+  </si>
+  <si>
+    <t>ECN (4331101)</t>
+  </si>
+  <si>
+    <t>BICT (4300010)</t>
+  </si>
+  <si>
+    <t>EEE (1313202)</t>
+  </si>
+  <si>
+    <t>PR1 (4351107)</t>
+  </si>
+  <si>
+    <t>DSA (1333203)</t>
+  </si>
+  <si>
+    <t>PP (4311601)</t>
+  </si>
+  <si>
+    <t>PEC (4331104)</t>
+  </si>
+  <si>
+    <t>CE (1333201)</t>
+  </si>
+  <si>
+    <t>FEE (4311101)</t>
+  </si>
+  <si>
+    <t>MPMC (1333202)</t>
+  </si>
+  <si>
+    <t>Overall Average</t>
+  </si>
+  <si>
+    <t>Average Score</t>
+  </si>
+  <si>
     <t>EC - Sem 5</t>
   </si>
   <si>
@@ -357,135 +441,6 @@
   </si>
   <si>
     <t>IT - Sem 1</t>
-  </si>
-  <si>
-    <t>Odd - 2023</t>
-  </si>
-  <si>
-    <t>Average scores for Q1-Q12</t>
-  </si>
-  <si>
-    <t>Overall average</t>
-  </si>
-  <si>
-    <t>[4.633333333333334, 4.444444444444445, 4.477777777777778, 4.522222222222222, 4.533333333333333, 4.644444444444445, 4.588888888888889, 4.6, 4.544444444444444, 4.488888888888889, 4.588888888888889, 4.644444444444445]</t>
-  </si>
-  <si>
-    <t>[3.727272727272727, 3.633116883116883, 3.74025974025974, 3.762987012987013, 3.720779220779221, 3.7435064935064934, 3.75, 3.7240259740259742, 3.727272727272727, 3.7142857142857144, 3.7305194805194803, 3.7759740259740258]</t>
-  </si>
-  <si>
-    <t>[4.260869565217392, 4.159420289855072, 4.2101449275362315, 4.202898550724638, 4.1231884057971016, 4.311594202898551, 4.231884057971015, 4.2101449275362315, 4.181159420289855, 4.043478260869565, 4.188405797101449, 4.166666666666667]</t>
-  </si>
-  <si>
-    <t>E&amp;S (4300021)</t>
-  </si>
-  <si>
-    <t>ES (4351102)</t>
-  </si>
-  <si>
-    <t>MWR (4351103)</t>
-  </si>
-  <si>
-    <t>M&amp;WC (4351104)</t>
-  </si>
-  <si>
-    <t>SP (4351105)</t>
-  </si>
-  <si>
-    <t>OPP (4351108)</t>
-  </si>
-  <si>
-    <t>PR1 (4351107)</t>
-  </si>
-  <si>
-    <t>ECN (4331101)</t>
-  </si>
-  <si>
-    <t>EMI (4331102)</t>
-  </si>
-  <si>
-    <t>IE (4331103)</t>
-  </si>
-  <si>
-    <t>PEC (4331104)</t>
-  </si>
-  <si>
-    <t>PC (4331105)</t>
-  </si>
-  <si>
-    <t>FE (4311102)</t>
-  </si>
-  <si>
-    <t>FEE (4311101)</t>
-  </si>
-  <si>
-    <t>BICT (4300010)</t>
-  </si>
-  <si>
-    <t>S&amp;Y (4300015)</t>
-  </si>
-  <si>
-    <t>CE (1333201)</t>
-  </si>
-  <si>
-    <t>MPMC (1333202)</t>
-  </si>
-  <si>
-    <t>DSA (1333203)</t>
-  </si>
-  <si>
-    <t>DBMS (1333204)</t>
-  </si>
-  <si>
-    <t>OSA (1333205)</t>
-  </si>
-  <si>
-    <t>EEE (1313202)</t>
-  </si>
-  <si>
-    <t>WDP (1313203)</t>
-  </si>
-  <si>
-    <t>FICT (1313201)</t>
-  </si>
-  <si>
-    <t>PP (4311601)</t>
-  </si>
-  <si>
-    <t>SWD (4311603)</t>
-  </si>
-  <si>
-    <t>IIS (4311602)</t>
-  </si>
-  <si>
-    <t>Subjects</t>
-  </si>
-  <si>
-    <t>{'E&amp;S (4300021)': 4.966666666666667, 'EMI (4331102)': 3.78125, 'FICT (1313201)': 3.139705882352941, 'S&amp;Y (4300015)': 4.286231884057971}</t>
-  </si>
-  <si>
-    <t>{'ES (4351102)': 5.0, 'PC (4331105)': 4.1875, 'DBMS (1333204)': 4.345238095238095, 'WDP (1313203)': 3.8186274509803924}</t>
-  </si>
-  <si>
-    <t>{'MWR (4351103)': 4.983333333333333, 'IE (4331103)': 4.1875, 'WDP (1313203)': 3.4705882352941178, 'SWD (4311603)': 4.36231884057971}</t>
-  </si>
-  <si>
-    <t>{'M&amp;WC (4351104)': 5.0, 'OPP (4351108)': 5.0, 'FE (4311102)': 4.916666666666667, 'OSA (1333205)': 4.5773809523809526, 'IIS (4311602)': 4.634057971014493}</t>
-  </si>
-  <si>
-    <t>{'SP (4351105)': 5.0, 'ECN (4331101)': 4.520833333333333, 'BICT (4300010)': 4.666666666666667, 'EEE (1313202)': 3.9362745098039214, 'FICT (1313201)': 3.6544117647058822}</t>
-  </si>
-  <si>
-    <t>{'PR1 (4351107)': 5.0, 'DSA (1333203)': 4.333333333333333, 'PP (4311601)': 4.427536231884058}</t>
-  </si>
-  <si>
-    <t>{'PEC (4331104)': 4.614583333333333, 'CE (1333201)': 4.089285714285714}</t>
-  </si>
-  <si>
-    <t>{'FEE (4311101)': 4.944444444444445, 'MPMC (1333202)': 4.148809523809524, 'S&amp;Y (4300015)': 3.75, 'IIS (4311602)': 4.409420289855072}</t>
-  </si>
-  <si>
-    <t>{'BICT (4300010)': 3.1944444444444446, 'S&amp;Y (4300015)': 4.027777777777778, 'IIS (4311602)': 3.0253623188405796}</t>
   </si>
 </sst>
 </file>
@@ -40594,13 +40549,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
@@ -40619,28 +40574,245 @@
       <c r="G1" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.1875</v>
+        <v>3.25</v>
       </c>
       <c r="D2">
-        <v>4.027777777777778</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="E2">
-        <v>4.577380952380953</v>
-      </c>
-      <c r="F2">
-        <v>3.161764705882353</v>
-      </c>
-      <c r="G2">
-        <v>4.286231884057971</v>
+        <v>5</v>
+      </c>
+      <c r="AC2">
+        <v>4.270833333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>4.25</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="T3">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="U3">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="AC3">
+        <v>4.270833333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="AB4">
+        <v>3.5</v>
+      </c>
+      <c r="AC4">
+        <v>4.520833333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>1.583333333333333</v>
+      </c>
+      <c r="AC5">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>3.416666666666667</v>
+      </c>
+      <c r="H6">
+        <v>3.75</v>
+      </c>
+      <c r="I6">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="AC6">
+        <v>4.616666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>3.25</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="P8">
+        <v>3.583333333333333</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="AC8">
+        <v>3.458333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>3.5</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="AC9">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y10">
+        <v>3.083333333333333</v>
+      </c>
+      <c r="Z10">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="AC10">
+        <v>3.555555555555555</v>
       </c>
     </row>
   </sheetData>
@@ -40650,51 +40822,360 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3">
+        <v>3.25</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="J4">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="F5">
+        <v>4.25</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>3.416666666666667</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8">
+        <v>3.75</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C9">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="D9">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K9">
+        <v>4.083333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C2">
-        <v>4.559259259259259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D11">
+        <v>3.25</v>
+      </c>
+      <c r="K11">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C3">
-        <v>3.729166666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>3.083333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C4">
-        <v>4.190821256038648</v>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>3.416666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>4.916666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="K15">
+        <v>4.916666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>3.583333333333333</v>
+      </c>
+      <c r="K16">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>4.388888888888888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>3.833333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="K19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="J20">
+        <v>1.583333333333333</v>
+      </c>
+      <c r="K20">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K21">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>3.583333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23">
+        <v>3.5</v>
+      </c>
+      <c r="K23">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25">
+        <v>3.083333333333333</v>
+      </c>
+      <c r="K25">
+        <v>4.041666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28">
+        <v>3.5</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -40704,7 +41185,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40712,223 +41193,55 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B2">
-        <v>4.966666666666667</v>
+        <v>4.992857142857143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4.258333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B4">
-        <v>4.983333333333333</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4.298809523809524</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3.561624649859944</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9">
-        <v>4.520833333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10">
-        <v>3.78125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11">
-        <v>4.1875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12">
-        <v>4.614583333333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13">
-        <v>4.1875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14">
-        <v>4.916666666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15">
-        <v>4.944444444444445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16">
-        <v>3.930555555555555</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17">
-        <v>4.286231884057971</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18">
-        <v>4.089285714285714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19">
-        <v>4.148809523809524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20">
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21">
-        <v>4.345238095238095</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22">
-        <v>4.577380952380953</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23">
-        <v>3.936274509803921</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24">
-        <v>3.644607843137255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25">
-        <v>3.397058823529412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26">
-        <v>4.427536231884058</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27">
-        <v>4.36231884057971</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28">
-        <v>4.022946859903382</v>
+        <v>4.190821256038648</v>
       </c>
     </row>
   </sheetData>
@@ -40938,1869 +41251,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2">
-        <v>3.537660256410256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3">
-        <v>4.084699453551913</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4">
-        <v>3.953571428571429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5">
-        <v>4.708333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6">
-        <v>3.967261904761905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7">
-        <v>4.464285714285714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8">
-        <v>4.28030303030303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9">
-        <v>4.078828828828829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10">
-        <v>3.146551724137931</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2">
-        <v>4.633333333333334</v>
-      </c>
-      <c r="C2">
-        <v>4.444444444444445</v>
-      </c>
-      <c r="D2">
-        <v>4.477777777777778</v>
-      </c>
-      <c r="E2">
-        <v>4.522222222222222</v>
-      </c>
-      <c r="F2">
-        <v>4.533333333333333</v>
-      </c>
-      <c r="G2">
-        <v>4.644444444444445</v>
-      </c>
-      <c r="H2">
-        <v>4.588888888888889</v>
-      </c>
-      <c r="I2">
-        <v>4.6</v>
-      </c>
-      <c r="J2">
-        <v>4.544444444444444</v>
-      </c>
-      <c r="K2">
-        <v>4.488888888888889</v>
-      </c>
-      <c r="L2">
-        <v>4.588888888888889</v>
-      </c>
-      <c r="M2">
-        <v>4.644444444444445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.559259259259259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3">
-        <v>3.727272727272727</v>
-      </c>
-      <c r="C3">
-        <v>3.633116883116883</v>
-      </c>
-      <c r="D3">
-        <v>3.74025974025974</v>
-      </c>
-      <c r="E3">
-        <v>3.762987012987013</v>
-      </c>
-      <c r="F3">
-        <v>3.720779220779221</v>
-      </c>
-      <c r="G3">
-        <v>3.743506493506493</v>
-      </c>
-      <c r="H3">
-        <v>3.75</v>
-      </c>
-      <c r="I3">
-        <v>3.724025974025974</v>
-      </c>
-      <c r="J3">
-        <v>3.727272727272727</v>
-      </c>
-      <c r="K3">
-        <v>3.714285714285714</v>
-      </c>
-      <c r="L3">
-        <v>3.73051948051948</v>
-      </c>
-      <c r="M3">
-        <v>3.775974025974026</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>3.729166666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4">
-        <v>4.260869565217392</v>
-      </c>
-      <c r="C4">
-        <v>4.159420289855072</v>
-      </c>
-      <c r="D4">
-        <v>4.210144927536231</v>
-      </c>
-      <c r="E4">
-        <v>4.202898550724638</v>
-      </c>
-      <c r="F4">
-        <v>4.123188405797102</v>
-      </c>
-      <c r="G4">
-        <v>4.311594202898551</v>
-      </c>
-      <c r="H4">
-        <v>4.231884057971015</v>
-      </c>
-      <c r="I4">
-        <v>4.210144927536231</v>
-      </c>
-      <c r="J4">
-        <v>4.181159420289855</v>
-      </c>
-      <c r="K4">
-        <v>4.043478260869565</v>
-      </c>
-      <c r="L4">
-        <v>4.188405797101449</v>
-      </c>
-      <c r="M4">
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>4.8</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>4.8</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9">
-        <v>4.5</v>
-      </c>
-      <c r="C9">
-        <v>4.125</v>
-      </c>
-      <c r="D9">
-        <v>4.5</v>
-      </c>
-      <c r="E9">
-        <v>4.625</v>
-      </c>
-      <c r="F9">
-        <v>4.375</v>
-      </c>
-      <c r="G9">
-        <v>4.5</v>
-      </c>
-      <c r="H9">
-        <v>4.75</v>
-      </c>
-      <c r="I9">
-        <v>4.5</v>
-      </c>
-      <c r="J9">
-        <v>4.5</v>
-      </c>
-      <c r="K9">
-        <v>4.375</v>
-      </c>
-      <c r="L9">
-        <v>4.875</v>
-      </c>
-      <c r="M9">
-        <v>4.625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10">
-        <v>3.875</v>
-      </c>
-      <c r="C10">
-        <v>3.5</v>
-      </c>
-      <c r="D10">
-        <v>3.5</v>
-      </c>
-      <c r="E10">
-        <v>3.25</v>
-      </c>
-      <c r="F10">
-        <v>3.625</v>
-      </c>
-      <c r="G10">
-        <v>3.875</v>
-      </c>
-      <c r="H10">
-        <v>4.25</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>3.5</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11">
-        <v>4.5</v>
-      </c>
-      <c r="C11">
-        <v>3.875</v>
-      </c>
-      <c r="D11">
-        <v>4.125</v>
-      </c>
-      <c r="E11">
-        <v>4.25</v>
-      </c>
-      <c r="F11">
-        <v>4.5</v>
-      </c>
-      <c r="G11">
-        <v>4.75</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>4.375</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>3.625</v>
-      </c>
-      <c r="L11">
-        <v>4.125</v>
-      </c>
-      <c r="M11">
-        <v>4.125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12">
-        <v>4.75</v>
-      </c>
-      <c r="C12">
-        <v>4.125</v>
-      </c>
-      <c r="D12">
-        <v>4.5</v>
-      </c>
-      <c r="E12">
-        <v>4.75</v>
-      </c>
-      <c r="F12">
-        <v>4.625</v>
-      </c>
-      <c r="G12">
-        <v>4.625</v>
-      </c>
-      <c r="H12">
-        <v>4.625</v>
-      </c>
-      <c r="I12">
-        <v>4.75</v>
-      </c>
-      <c r="J12">
-        <v>4.625</v>
-      </c>
-      <c r="K12">
-        <v>4.5</v>
-      </c>
-      <c r="L12">
-        <v>4.625</v>
-      </c>
-      <c r="M12">
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13">
-        <v>4.375</v>
-      </c>
-      <c r="C13">
-        <v>4.125</v>
-      </c>
-      <c r="D13">
-        <v>4.25</v>
-      </c>
-      <c r="E13">
-        <v>4.125</v>
-      </c>
-      <c r="F13">
-        <v>3.875</v>
-      </c>
-      <c r="G13">
-        <v>4.375</v>
-      </c>
-      <c r="H13">
-        <v>4.125</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <v>4.375</v>
-      </c>
-      <c r="L13">
-        <v>4.125</v>
-      </c>
-      <c r="M13">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>5</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>3.5</v>
-      </c>
-      <c r="E16">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="F16">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="I16">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>4</v>
-      </c>
-      <c r="L16">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17">
-        <v>3.712765957446809</v>
-      </c>
-      <c r="C17">
-        <v>3.648936170212766</v>
-      </c>
-      <c r="D17">
-        <v>3.691489361702128</v>
-      </c>
-      <c r="E17">
-        <v>3.648936170212766</v>
-      </c>
-      <c r="F17">
-        <v>3.627659574468085</v>
-      </c>
-      <c r="G17">
-        <v>3.702127659574468</v>
-      </c>
-      <c r="H17">
-        <v>3.712765957446809</v>
-      </c>
-      <c r="I17">
-        <v>3.702127659574468</v>
-      </c>
-      <c r="J17">
-        <v>3.670212765957447</v>
-      </c>
-      <c r="K17">
-        <v>3.723404255319149</v>
-      </c>
-      <c r="L17">
-        <v>3.606382978723404</v>
-      </c>
-      <c r="M17">
-        <v>3.680851063829787</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18">
-        <v>4.071428571428571</v>
-      </c>
-      <c r="C18">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="D18">
-        <v>4.071428571428571</v>
-      </c>
-      <c r="E18">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="F18">
-        <v>4.285714285714286</v>
-      </c>
-      <c r="G18">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="H18">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="I18">
-        <v>4.071428571428571</v>
-      </c>
-      <c r="J18">
-        <v>3.928571428571428</v>
-      </c>
-      <c r="K18">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="L18">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="M18">
-        <v>4.214285714285714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="D19">
-        <v>3.785714285714286</v>
-      </c>
-      <c r="E19">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="F19">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="G19">
-        <v>4.071428571428571</v>
-      </c>
-      <c r="H19">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="I19">
-        <v>4.285714285714286</v>
-      </c>
-      <c r="J19">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="K19">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="L19">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="M19">
-        <v>4.285714285714286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20">
-        <v>4.071428571428571</v>
-      </c>
-      <c r="C20">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="D20">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="E20">
-        <v>4.5</v>
-      </c>
-      <c r="F20">
-        <v>4.428571428571429</v>
-      </c>
-      <c r="G20">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="H20">
-        <v>4.5</v>
-      </c>
-      <c r="I20">
-        <v>4.285714285714286</v>
-      </c>
-      <c r="J20">
-        <v>4.428571428571429</v>
-      </c>
-      <c r="K20">
-        <v>4.642857142857143</v>
-      </c>
-      <c r="L20">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="M20">
-        <v>4.428571428571429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21">
-        <v>4.071428571428571</v>
-      </c>
-      <c r="C21">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="D21">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="E21">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="F21">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="G21">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="H21">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="I21">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="J21">
-        <v>4.571428571428571</v>
-      </c>
-      <c r="K21">
-        <v>4.571428571428571</v>
-      </c>
-      <c r="L21">
-        <v>4.571428571428571</v>
-      </c>
-      <c r="M21">
-        <v>4.642857142857143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22">
-        <v>4.428571428571429</v>
-      </c>
-      <c r="C22">
-        <v>4.428571428571429</v>
-      </c>
-      <c r="D22">
-        <v>4.857142857142857</v>
-      </c>
-      <c r="E22">
-        <v>4.642857142857143</v>
-      </c>
-      <c r="F22">
-        <v>4.642857142857143</v>
-      </c>
-      <c r="G22">
-        <v>4.428571428571429</v>
-      </c>
-      <c r="H22">
-        <v>4.5</v>
-      </c>
-      <c r="I22">
-        <v>4.571428571428571</v>
-      </c>
-      <c r="J22">
-        <v>4.642857142857143</v>
-      </c>
-      <c r="K22">
-        <v>4.5</v>
-      </c>
-      <c r="L22">
-        <v>4.5</v>
-      </c>
-      <c r="M22">
-        <v>4.785714285714286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23">
-        <v>4.058823529411764</v>
-      </c>
-      <c r="C23">
-        <v>3.911764705882353</v>
-      </c>
-      <c r="D23">
-        <v>3.911764705882353</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>3.911764705882353</v>
-      </c>
-      <c r="G23">
-        <v>4.029411764705882</v>
-      </c>
-      <c r="H23">
-        <v>3.941176470588236</v>
-      </c>
-      <c r="I23">
-        <v>3.823529411764706</v>
-      </c>
-      <c r="J23">
-        <v>4.029411764705882</v>
-      </c>
-      <c r="K23">
-        <v>3.764705882352941</v>
-      </c>
-      <c r="L23">
-        <v>4.029411764705882</v>
-      </c>
-      <c r="M23">
-        <v>3.823529411764706</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24">
-        <v>3.617647058823529</v>
-      </c>
-      <c r="C24">
-        <v>3.588235294117647</v>
-      </c>
-      <c r="D24">
-        <v>3.691176470588236</v>
-      </c>
-      <c r="E24">
-        <v>3.661764705882353</v>
-      </c>
-      <c r="F24">
-        <v>3.573529411764706</v>
-      </c>
-      <c r="G24">
-        <v>3.661764705882353</v>
-      </c>
-      <c r="H24">
-        <v>3.617647058823529</v>
-      </c>
-      <c r="I24">
-        <v>3.691176470588236</v>
-      </c>
-      <c r="J24">
-        <v>3.602941176470588</v>
-      </c>
-      <c r="K24">
-        <v>3.602941176470588</v>
-      </c>
-      <c r="L24">
-        <v>3.720588235294118</v>
-      </c>
-      <c r="M24">
-        <v>3.705882352941177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25">
-        <v>3.485294117647059</v>
-      </c>
-      <c r="C25">
-        <v>3.382352941176471</v>
-      </c>
-      <c r="D25">
-        <v>3.455882352941177</v>
-      </c>
-      <c r="E25">
-        <v>3.426470588235294</v>
-      </c>
-      <c r="F25">
-        <v>3.352941176470588</v>
-      </c>
-      <c r="G25">
-        <v>3.470588235294118</v>
-      </c>
-      <c r="H25">
-        <v>3.397058823529412</v>
-      </c>
-      <c r="I25">
-        <v>3.352941176470588</v>
-      </c>
-      <c r="J25">
-        <v>3.338235294117647</v>
-      </c>
-      <c r="K25">
-        <v>3.323529411764706</v>
-      </c>
-      <c r="L25">
-        <v>3.338235294117647</v>
-      </c>
-      <c r="M25">
-        <v>3.441176470588236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26">
-        <v>4.652173913043478</v>
-      </c>
-      <c r="C26">
-        <v>4.434782608695652</v>
-      </c>
-      <c r="D26">
-        <v>4.478260869565218</v>
-      </c>
-      <c r="E26">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="F26">
-        <v>4.434782608695652</v>
-      </c>
-      <c r="G26">
-        <v>4.521739130434782</v>
-      </c>
-      <c r="H26">
-        <v>4.434782608695652</v>
-      </c>
-      <c r="I26">
-        <v>4.391304347826087</v>
-      </c>
-      <c r="J26">
-        <v>4.478260869565218</v>
-      </c>
-      <c r="K26">
-        <v>3.869565217391304</v>
-      </c>
-      <c r="L26">
-        <v>4.565217391304348</v>
-      </c>
-      <c r="M26">
-        <v>4.521739130434782</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27">
-        <v>4.304347826086956</v>
-      </c>
-      <c r="C27">
-        <v>4.304347826086956</v>
-      </c>
-      <c r="D27">
-        <v>4.521739130434782</v>
-      </c>
-      <c r="E27">
-        <v>4.434782608695652</v>
-      </c>
-      <c r="F27">
-        <v>4.173913043478261</v>
-      </c>
-      <c r="G27">
-        <v>4.521739130434782</v>
-      </c>
-      <c r="H27">
-        <v>4.434782608695652</v>
-      </c>
-      <c r="I27">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="J27">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="K27">
-        <v>4.217391304347826</v>
-      </c>
-      <c r="L27">
-        <v>4.391304347826087</v>
-      </c>
-      <c r="M27">
-        <v>4.347826086956522</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28">
-        <v>4.115942028985507</v>
-      </c>
-      <c r="C28">
-        <v>4.014492753623188</v>
-      </c>
-      <c r="D28">
-        <v>3.985507246376812</v>
-      </c>
-      <c r="E28">
-        <v>4.072463768115942</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28">
-        <v>4.144927536231884</v>
-      </c>
-      <c r="H28">
-        <v>4.086956521739131</v>
-      </c>
-      <c r="I28">
-        <v>4.057971014492754</v>
-      </c>
-      <c r="J28">
-        <v>3.985507246376812</v>
-      </c>
-      <c r="K28">
-        <v>3.942028985507247</v>
-      </c>
-      <c r="L28">
-        <v>3.927536231884058</v>
-      </c>
-      <c r="M28">
-        <v>3.942028985507247</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2">
-        <v>3.586538461538462</v>
-      </c>
-      <c r="C2">
-        <v>3.480769230769231</v>
-      </c>
-      <c r="D2">
-        <v>3.538461538461538</v>
-      </c>
-      <c r="E2">
-        <v>3.509615384615385</v>
-      </c>
-      <c r="F2">
-        <v>3.490384615384615</v>
-      </c>
-      <c r="G2">
-        <v>3.576923076923077</v>
-      </c>
-      <c r="H2">
-        <v>3.576923076923077</v>
-      </c>
-      <c r="I2">
-        <v>3.548076923076923</v>
-      </c>
-      <c r="J2">
-        <v>3.519230769230769</v>
-      </c>
-      <c r="K2">
-        <v>3.5</v>
-      </c>
-      <c r="L2">
-        <v>3.557692307692307</v>
-      </c>
-      <c r="M2">
-        <v>3.567307692307693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3">
-        <v>4.065573770491803</v>
-      </c>
-      <c r="C3">
-        <v>3.852459016393443</v>
-      </c>
-      <c r="D3">
-        <v>4.114754098360656</v>
-      </c>
-      <c r="E3">
-        <v>4.098360655737705</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>4.081967213114754</v>
-      </c>
-      <c r="H3">
-        <v>4.049180327868853</v>
-      </c>
-      <c r="I3">
-        <v>4.081967213114754</v>
-      </c>
-      <c r="J3">
-        <v>4.081967213114754</v>
-      </c>
-      <c r="K3">
-        <v>4.180327868852459</v>
-      </c>
-      <c r="L3">
-        <v>4.19672131147541</v>
-      </c>
-      <c r="M3">
-        <v>4.213114754098361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4">
-        <v>3.928571428571428</v>
-      </c>
-      <c r="C4">
-        <v>3.942857142857143</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>3.985714285714286</v>
-      </c>
-      <c r="F4">
-        <v>3.9</v>
-      </c>
-      <c r="G4">
-        <v>4.114285714285714</v>
-      </c>
-      <c r="H4">
-        <v>3.928571428571428</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>3.914285714285714</v>
-      </c>
-      <c r="K4">
-        <v>3.785714285714286</v>
-      </c>
-      <c r="L4">
-        <v>3.971428571428572</v>
-      </c>
-      <c r="M4">
-        <v>3.971428571428572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5">
-        <v>4.56</v>
-      </c>
-      <c r="C5">
-        <v>4.64</v>
-      </c>
-      <c r="D5">
-        <v>4.74</v>
-      </c>
-      <c r="E5">
-        <v>4.78</v>
-      </c>
-      <c r="F5">
-        <v>4.68</v>
-      </c>
-      <c r="G5">
-        <v>4.72</v>
-      </c>
-      <c r="H5">
-        <v>4.68</v>
-      </c>
-      <c r="I5">
-        <v>4.7</v>
-      </c>
-      <c r="J5">
-        <v>4.78</v>
-      </c>
-      <c r="K5">
-        <v>4.68</v>
-      </c>
-      <c r="L5">
-        <v>4.72</v>
-      </c>
-      <c r="M5">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6">
-        <v>4.011904761904762</v>
-      </c>
-      <c r="C6">
-        <v>3.928571428571428</v>
-      </c>
-      <c r="D6">
-        <v>3.928571428571428</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>3.940476190476191</v>
-      </c>
-      <c r="G6">
-        <v>4.071428571428571</v>
-      </c>
-      <c r="H6">
-        <v>3.988095238095238</v>
-      </c>
-      <c r="I6">
-        <v>3.904761904761905</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>3.869047619047619</v>
-      </c>
-      <c r="L6">
-        <v>3.988095238095238</v>
-      </c>
-      <c r="M6">
-        <v>3.976190476190476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7">
-        <v>4.5</v>
-      </c>
-      <c r="C7">
-        <v>4.309523809523809</v>
-      </c>
-      <c r="D7">
-        <v>4.5</v>
-      </c>
-      <c r="E7">
-        <v>4.476190476190476</v>
-      </c>
-      <c r="F7">
-        <v>4.5</v>
-      </c>
-      <c r="G7">
-        <v>4.452380952380953</v>
-      </c>
-      <c r="H7">
-        <v>4.523809523809524</v>
-      </c>
-      <c r="I7">
-        <v>4.428571428571429</v>
-      </c>
-      <c r="J7">
-        <v>4.523809523809524</v>
-      </c>
-      <c r="K7">
-        <v>4.261904761904762</v>
-      </c>
-      <c r="L7">
-        <v>4.547619047619047</v>
-      </c>
-      <c r="M7">
-        <v>4.547619047619047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8">
-        <v>4.318181818181818</v>
-      </c>
-      <c r="C8">
-        <v>3.772727272727273</v>
-      </c>
-      <c r="D8">
-        <v>4.227272727272728</v>
-      </c>
-      <c r="E8">
-        <v>4.409090909090909</v>
-      </c>
-      <c r="F8">
-        <v>4.409090909090909</v>
-      </c>
-      <c r="G8">
-        <v>4.318181818181818</v>
-      </c>
-      <c r="H8">
-        <v>4.363636363636363</v>
-      </c>
-      <c r="I8">
-        <v>4.318181818181818</v>
-      </c>
-      <c r="J8">
-        <v>4.181818181818182</v>
-      </c>
-      <c r="K8">
-        <v>4.272727272727272</v>
-      </c>
-      <c r="L8">
-        <v>4.318181818181818</v>
-      </c>
-      <c r="M8">
-        <v>4.454545454545454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9">
-        <v>4.081081081081081</v>
-      </c>
-      <c r="C9">
-        <v>4.04054054054054</v>
-      </c>
-      <c r="D9">
-        <v>3.986486486486486</v>
-      </c>
-      <c r="E9">
-        <v>4.067567567567568</v>
-      </c>
-      <c r="F9">
-        <v>4.081081081081081</v>
-      </c>
-      <c r="G9">
-        <v>4.094594594594595</v>
-      </c>
-      <c r="H9">
-        <v>4.189189189189189</v>
-      </c>
-      <c r="I9">
-        <v>4.148648648648648</v>
-      </c>
-      <c r="J9">
-        <v>4.094594594594595</v>
-      </c>
-      <c r="K9">
-        <v>4.081081081081081</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>4.081081081081081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10">
-        <v>3.655172413793104</v>
-      </c>
-      <c r="C10">
-        <v>3.275862068965517</v>
-      </c>
-      <c r="D10">
-        <v>3.206896551724138</v>
-      </c>
-      <c r="E10">
-        <v>3.137931034482758</v>
-      </c>
-      <c r="F10">
-        <v>3.103448275862069</v>
-      </c>
-      <c r="G10">
-        <v>3.241379310344827</v>
-      </c>
-      <c r="H10">
-        <v>3.206896551724138</v>
-      </c>
-      <c r="I10">
-        <v>3.206896551724138</v>
-      </c>
-      <c r="J10">
-        <v>2.931034482758621</v>
-      </c>
-      <c r="K10">
-        <v>3.03448275862069</v>
-      </c>
-      <c r="L10">
-        <v>2.862068965517242</v>
-      </c>
-      <c r="M10">
-        <v>2.896551724137931</v>
+        <v>4.190821256038648</v>
       </c>
     </row>
   </sheetData>

--- a/feedback_report.xlsx
+++ b/feedback_report.xlsx
@@ -8,17 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Original Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Faculty Analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="Subject Analysis" sheetId="3" r:id="rId3"/>
-    <sheet name="Semester Analysis" sheetId="4" r:id="rId4"/>
-    <sheet name="Branch Analysis" sheetId="5" r:id="rId5"/>
+    <sheet name="subject_scores_faculty" sheetId="2" r:id="rId2"/>
+    <sheet name="subject_scores_overall" sheetId="3" r:id="rId3"/>
+    <sheet name="faculty_scores_subject" sheetId="4" r:id="rId4"/>
+    <sheet name="faculty_scores_overall" sheetId="5" r:id="rId5"/>
+    <sheet name="semester_scores" sheetId="6" r:id="rId6"/>
+    <sheet name="branch_scores" sheetId="7" r:id="rId7"/>
+    <sheet name="term_year_scores" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="115">
   <si>
     <t>Year</t>
   </si>
@@ -338,109 +341,31 @@
     <t>Mr. M J Vadhwania</t>
   </si>
   <si>
-    <t>E&amp;S (4300021)</t>
+    <t>Average_Score</t>
   </si>
   <si>
-    <t>EMI (4331102)</t>
+    <t>Overall_Average</t>
   </si>
   <si>
-    <t>FICT (1313201)</t>
+    <t>Branch_Semester</t>
   </si>
   <si>
-    <t>S&amp;Y (4300015)</t>
+    <t>EC - 1</t>
   </si>
   <si>
-    <t>ES (4351102)</t>
+    <t>EC - 3</t>
   </si>
   <si>
-    <t>PC (4331105)</t>
+    <t>EC - 5</t>
   </si>
   <si>
-    <t>DBMS (1333204)</t>
+    <t>ICT - 1</t>
   </si>
   <si>
-    <t>WDP (1313203)</t>
+    <t>ICT - 3</t>
   </si>
   <si>
-    <t>MWR (4351103)</t>
-  </si>
-  <si>
-    <t>IE (4331103)</t>
-  </si>
-  <si>
-    <t>SWD (4311603)</t>
-  </si>
-  <si>
-    <t>M&amp;WC (4351104)</t>
-  </si>
-  <si>
-    <t>OPP (4351108)</t>
-  </si>
-  <si>
-    <t>FE (4311102)</t>
-  </si>
-  <si>
-    <t>OSA (1333205)</t>
-  </si>
-  <si>
-    <t>IIS (4311602)</t>
-  </si>
-  <si>
-    <t>SP (4351105)</t>
-  </si>
-  <si>
-    <t>ECN (4331101)</t>
-  </si>
-  <si>
-    <t>BICT (4300010)</t>
-  </si>
-  <si>
-    <t>EEE (1313202)</t>
-  </si>
-  <si>
-    <t>PR1 (4351107)</t>
-  </si>
-  <si>
-    <t>DSA (1333203)</t>
-  </si>
-  <si>
-    <t>PP (4311601)</t>
-  </si>
-  <si>
-    <t>PEC (4331104)</t>
-  </si>
-  <si>
-    <t>CE (1333201)</t>
-  </si>
-  <si>
-    <t>FEE (4311101)</t>
-  </si>
-  <si>
-    <t>MPMC (1333202)</t>
-  </si>
-  <si>
-    <t>Overall Average</t>
-  </si>
-  <si>
-    <t>Average Score</t>
-  </si>
-  <si>
-    <t>EC - Sem 5</t>
-  </si>
-  <si>
-    <t>EC - Sem 3</t>
-  </si>
-  <si>
-    <t>EC - Sem 1</t>
-  </si>
-  <si>
-    <t>ICT - Sem 3</t>
-  </si>
-  <si>
-    <t>ICT - Sem 1</t>
-  </si>
-  <si>
-    <t>IT - Sem 1</t>
+    <t>IT - 1</t>
   </si>
 </sst>
 </file>
@@ -40549,270 +40474,395 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1313201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>3.654411764705882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1313201</v>
+      </c>
+      <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>3.25</v>
-      </c>
-      <c r="D2">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="AC2">
-        <v>4.270833333333334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="1" t="s">
+      <c r="C3">
+        <v>3.139705882352942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1313202</v>
+      </c>
+      <c r="B4" t="s">
         <v>101</v>
       </c>
-      <c r="D3">
-        <v>4.25</v>
-      </c>
-      <c r="R3">
-        <v>5</v>
-      </c>
-      <c r="S3">
-        <v>4.083333333333333</v>
-      </c>
-      <c r="T3">
+      <c r="C4">
+        <v>3.936274509803921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1313203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>3.470588235294118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1313203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6">
+        <v>3.818627450980392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1333201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7">
+        <v>4.089285714285714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1333202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8">
+        <v>4.148809523809525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1333203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1333204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10">
+        <v>4.345238095238095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1333205</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>4.577380952380953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>4300010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>3.194444444444445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>4300010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>4300015</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14">
+        <v>4.027777777777778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>4300015</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>4300015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16">
+        <v>3.615497076023392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>4300021</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17">
+        <v>4.966666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>4311101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18">
+        <v>4.944444444444445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>4311102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19">
         <v>4.916666666666667</v>
       </c>
-      <c r="U3">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="AC3">
-        <v>4.270833333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>4311601</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20">
+        <v>4.427536231884058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>4311602</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>4.634057971014493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>4311602</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22">
+        <v>3.02536231884058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>4311602</v>
+      </c>
+      <c r="B23" t="s">
         <v>104</v>
       </c>
-      <c r="E4">
-        <v>4.083333333333333</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="AA4">
-        <v>4.916666666666667</v>
-      </c>
-      <c r="AB4">
-        <v>3.5</v>
-      </c>
-      <c r="AC4">
+      <c r="C23">
+        <v>4.409420289855071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>4311603</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24">
+        <v>4.36231884057971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>4331101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25">
         <v>4.520833333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5">
-        <v>4.083333333333333</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-      <c r="T5">
-        <v>1.583333333333333</v>
-      </c>
-      <c r="AC5">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="1" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>4331102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26">
+        <v>3.78125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>4331103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27">
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>4331104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28">
+        <v>4.614583333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>4331105</v>
+      </c>
+      <c r="B29" t="s">
         <v>98</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>3.416666666666667</v>
-      </c>
-      <c r="H6">
-        <v>3.75</v>
-      </c>
-      <c r="I6">
-        <v>4.916666666666667</v>
-      </c>
-      <c r="AC6">
-        <v>4.616666666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="1" t="s">
+      <c r="C29">
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>4351102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>4351103</v>
+      </c>
+      <c r="B31" t="s">
         <v>99</v>
       </c>
-      <c r="I7">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>3.25</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="AC7">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="1" t="s">
+      <c r="C31">
+        <v>4.983333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>4351104</v>
+      </c>
+      <c r="B32" t="s">
         <v>100</v>
       </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>4.916666666666667</v>
-      </c>
-      <c r="P8">
-        <v>3.583333333333333</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-      <c r="AC8">
-        <v>3.458333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="1" t="s">
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>4351105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>4351107</v>
+      </c>
+      <c r="B34" t="s">
         <v>102</v>
       </c>
-      <c r="V9">
-        <v>5</v>
-      </c>
-      <c r="W9">
-        <v>3.5</v>
-      </c>
-      <c r="X9">
-        <v>5</v>
-      </c>
-      <c r="AC9">
-        <v>4.375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y10">
-        <v>3.083333333333333</v>
-      </c>
-      <c r="Z10">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="AC10">
-        <v>3.555555555555555</v>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>4351108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -40822,359 +40872,233 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1313201</v>
       </c>
       <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>3.397058823529412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1313202</v>
       </c>
       <c r="B3">
-        <v>3.25</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>3.936274509803921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1313203</v>
       </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>4.083333333333333</v>
-      </c>
-      <c r="J4">
-        <v>4.083333333333333</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>3.644607843137255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1333201</v>
       </c>
       <c r="B5">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="F5">
-        <v>4.25</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7">
-        <v>3.416666666666667</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8">
-        <v>3.75</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9">
+        <v>4.089285714285714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>1333202</v>
+      </c>
+      <c r="B6">
+        <v>4.148809523809525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>1333203</v>
+      </c>
+      <c r="B7">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>1333204</v>
+      </c>
+      <c r="B8">
+        <v>4.345238095238095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>1333205</v>
+      </c>
+      <c r="B9">
+        <v>4.577380952380953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>4300010</v>
+      </c>
+      <c r="B10">
+        <v>3.930555555555556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>4300015</v>
+      </c>
+      <c r="B11">
+        <v>3.79775828460039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>4300021</v>
+      </c>
+      <c r="B12">
+        <v>4.966666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>4311101</v>
+      </c>
+      <c r="B13">
+        <v>4.944444444444445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>4311102</v>
+      </c>
+      <c r="B14">
         <v>4.916666666666667</v>
       </c>
-      <c r="D9">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="K9">
-        <v>4.083333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11">
-        <v>3.25</v>
-      </c>
-      <c r="K11">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>3.083333333333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>3.416666666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>4.916666666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15">
-        <v>4.916666666666667</v>
-      </c>
-      <c r="K15">
-        <v>4.916666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16">
-        <v>3.583333333333333</v>
-      </c>
-      <c r="K16">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>4.388888888888888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>3.833333333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19">
-        <v>4.083333333333333</v>
-      </c>
-      <c r="K19">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20">
-        <v>4.916666666666667</v>
-      </c>
-      <c r="J20">
-        <v>1.583333333333333</v>
-      </c>
-      <c r="K20">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="K21">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="K22">
-        <v>3.583333333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23">
-        <v>3.5</v>
-      </c>
-      <c r="K23">
-        <v>4.833333333333333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25">
-        <v>3.083333333333333</v>
-      </c>
-      <c r="K25">
-        <v>4.041666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I27">
-        <v>4.916666666666667</v>
-      </c>
-      <c r="K27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28">
-        <v>3.5</v>
-      </c>
-      <c r="K28">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>4311601</v>
+      </c>
+      <c r="B15">
+        <v>4.427536231884058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>4311602</v>
+      </c>
+      <c r="B16">
+        <v>4.022946859903382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>4311603</v>
+      </c>
+      <c r="B17">
+        <v>4.36231884057971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>4331101</v>
+      </c>
+      <c r="B18">
+        <v>4.520833333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>4331102</v>
+      </c>
+      <c r="B19">
+        <v>3.78125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>4331103</v>
+      </c>
+      <c r="B20">
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>4331104</v>
+      </c>
+      <c r="B21">
+        <v>4.614583333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>4331105</v>
+      </c>
+      <c r="B22">
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>4351102</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>4351103</v>
+      </c>
+      <c r="B24">
+        <v>4.983333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>4351104</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>4351105</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>4351107</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>4351108</v>
+      </c>
+      <c r="B28">
         <v>5</v>
       </c>
     </row>
@@ -41185,63 +41109,488 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>1333205</v>
+      </c>
+      <c r="C2">
+        <v>4.577380952380953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>4311102</v>
+      </c>
+      <c r="C3">
+        <v>4.916666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>4311602</v>
+      </c>
+      <c r="C4">
+        <v>4.634057971014493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>4351104</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>4351108</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>1333203</v>
+      </c>
+      <c r="C7">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8">
+        <v>4311601</v>
+      </c>
+      <c r="C8">
+        <v>4.427536231884058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>4351107</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>4300010</v>
+      </c>
+      <c r="C10">
+        <v>3.194444444444445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11">
+        <v>4300015</v>
+      </c>
+      <c r="C11">
+        <v>4.027777777777778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12">
+        <v>4311602</v>
+      </c>
+      <c r="C12">
+        <v>3.02536231884058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>1333202</v>
+      </c>
+      <c r="C13">
+        <v>4.148809523809525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>4300015</v>
+      </c>
+      <c r="C14">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15">
+        <v>4311101</v>
+      </c>
+      <c r="C15">
+        <v>4.944444444444445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16">
+        <v>4311602</v>
+      </c>
+      <c r="C16">
+        <v>4.409420289855071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>1313203</v>
+      </c>
+      <c r="C17">
+        <v>3.470588235294118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18">
+        <v>4311603</v>
+      </c>
+      <c r="C18">
+        <v>4.36231884057971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <v>4331103</v>
+      </c>
+      <c r="C19">
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20">
+        <v>4351103</v>
+      </c>
+      <c r="C20">
+        <v>4.983333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21">
+        <v>1313201</v>
+      </c>
+      <c r="C21">
+        <v>3.654411764705882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22">
+        <v>1313202</v>
+      </c>
+      <c r="C22">
+        <v>3.936274509803921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23">
+        <v>4300010</v>
+      </c>
+      <c r="C23">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24">
+        <v>4331101</v>
+      </c>
+      <c r="C24">
+        <v>4.520833333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25">
+        <v>4351105</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26">
+        <v>1333201</v>
+      </c>
+      <c r="C26">
+        <v>4.089285714285714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27">
+        <v>4331104</v>
+      </c>
+      <c r="C27">
+        <v>4.614583333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28">
+        <v>1313201</v>
+      </c>
+      <c r="C28">
+        <v>3.139705882352942</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29">
+        <v>4300015</v>
+      </c>
+      <c r="C29">
+        <v>3.615497076023392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30">
+        <v>4300021</v>
+      </c>
+      <c r="C30">
+        <v>4.966666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31">
+        <v>4331102</v>
+      </c>
+      <c r="C31">
+        <v>3.78125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32">
+        <v>1313203</v>
+      </c>
+      <c r="C32">
+        <v>3.818627450980392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33">
+        <v>1333204</v>
+      </c>
+      <c r="C33">
+        <v>4.345238095238095</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34">
+        <v>4331105</v>
+      </c>
+      <c r="C34">
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35">
+        <v>4351102</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>135</v>
+      <c r="A2" t="s">
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>4.992857142857143</v>
+        <v>4.825621118012423</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>136</v>
+      <c r="A3" t="s">
+        <v>102</v>
       </c>
       <c r="B3">
-        <v>4.258333333333334</v>
+        <v>4.58695652173913</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>137</v>
+      <c r="A4" t="s">
+        <v>105</v>
       </c>
       <c r="B4">
-        <v>4.35</v>
+        <v>3.415861513687601</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>138</v>
+      <c r="A5" t="s">
+        <v>104</v>
       </c>
       <c r="B5">
-        <v>4.298809523809524</v>
+        <v>4.31316856452726</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>139</v>
+      <c r="A6" t="s">
+        <v>99</v>
       </c>
       <c r="B6">
-        <v>3.561624649859944</v>
+        <v>4.25093510230179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>140</v>
+      <c r="A7" t="s">
+        <v>101</v>
       </c>
       <c r="B7">
-        <v>4.190821256038648</v>
+        <v>4.355637254901961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>4.351934523809524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <v>3.87577990626075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10">
+        <v>4.337841386554622</v>
       </c>
     </row>
   </sheetData>
@@ -41249,7 +41598,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4.350000000000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2023</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4.258333333333334</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4.992857142857143</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3.561624649859944</v>
+      </c>
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4.298809523809523</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4.190821256038648</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -41258,32 +41760,70 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2">
-        <v>4.559259259259259</v>
+        <v>4.533730158730159</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3">
-        <v>3.729166666666667</v>
+        <v>3.930217086834734</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4">
         <v>4.190821256038648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>4.275407650983099</v>
       </c>
     </row>
   </sheetData>

--- a/feedback_report.xlsx
+++ b/feedback_report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4580" uniqueCount="115">
   <si>
     <t>Year</t>
   </si>
@@ -40474,7 +40474,1770 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1313201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>3.676470588235294</v>
+      </c>
+      <c r="E2">
+        <v>3.647058823529412</v>
+      </c>
+      <c r="F2">
+        <v>3.676470588235294</v>
+      </c>
+      <c r="G2">
+        <v>3.647058823529412</v>
+      </c>
+      <c r="H2">
+        <v>3.617647058823529</v>
+      </c>
+      <c r="I2">
+        <v>3.794117647058823</v>
+      </c>
+      <c r="J2">
+        <v>3.676470588235294</v>
+      </c>
+      <c r="K2">
+        <v>3.588235294117647</v>
+      </c>
+      <c r="L2">
+        <v>3.617647058823529</v>
+      </c>
+      <c r="M2">
+        <v>3.647058823529412</v>
+      </c>
+      <c r="N2">
+        <v>3.529411764705882</v>
+      </c>
+      <c r="O2">
+        <v>3.735294117647059</v>
+      </c>
+      <c r="P2">
+        <v>3.654411764705883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1313201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <v>3.294117647058823</v>
+      </c>
+      <c r="E3">
+        <v>3.117647058823529</v>
+      </c>
+      <c r="F3">
+        <v>3.235294117647059</v>
+      </c>
+      <c r="G3">
+        <v>3.205882352941177</v>
+      </c>
+      <c r="H3">
+        <v>3.088235294117647</v>
+      </c>
+      <c r="I3">
+        <v>3.147058823529412</v>
+      </c>
+      <c r="J3">
+        <v>3.117647058823529</v>
+      </c>
+      <c r="K3">
+        <v>3.117647058823529</v>
+      </c>
+      <c r="L3">
+        <v>3.058823529411764</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3.147058823529412</v>
+      </c>
+      <c r="O3">
+        <v>3.147058823529412</v>
+      </c>
+      <c r="P3">
+        <v>3.139705882352942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1313202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4">
+        <v>4.058823529411764</v>
+      </c>
+      <c r="E4">
+        <v>3.911764705882353</v>
+      </c>
+      <c r="F4">
+        <v>3.911764705882353</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>3.911764705882353</v>
+      </c>
+      <c r="I4">
+        <v>4.029411764705882</v>
+      </c>
+      <c r="J4">
+        <v>3.941176470588236</v>
+      </c>
+      <c r="K4">
+        <v>3.823529411764706</v>
+      </c>
+      <c r="L4">
+        <v>4.029411764705882</v>
+      </c>
+      <c r="M4">
+        <v>3.764705882352941</v>
+      </c>
+      <c r="N4">
+        <v>4.029411764705882</v>
+      </c>
+      <c r="O4">
+        <v>3.823529411764706</v>
+      </c>
+      <c r="P4">
+        <v>3.936274509803921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1313203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5">
+        <v>3.382352941176471</v>
+      </c>
+      <c r="E5">
+        <v>3.558823529411764</v>
+      </c>
+      <c r="F5">
+        <v>3.470588235294118</v>
+      </c>
+      <c r="G5">
+        <v>3.470588235294118</v>
+      </c>
+      <c r="H5">
+        <v>3.411764705882353</v>
+      </c>
+      <c r="I5">
+        <v>3.558823529411764</v>
+      </c>
+      <c r="J5">
+        <v>3.411764705882353</v>
+      </c>
+      <c r="K5">
+        <v>3.529411764705882</v>
+      </c>
+      <c r="L5">
+        <v>3.441176470588236</v>
+      </c>
+      <c r="M5">
+        <v>3.352941176470588</v>
+      </c>
+      <c r="N5">
+        <v>3.5</v>
+      </c>
+      <c r="O5">
+        <v>3.558823529411764</v>
+      </c>
+      <c r="P5">
+        <v>3.470588235294117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1313203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6">
+        <v>3.852941176470588</v>
+      </c>
+      <c r="E6">
+        <v>3.617647058823529</v>
+      </c>
+      <c r="F6">
+        <v>3.911764705882353</v>
+      </c>
+      <c r="G6">
+        <v>3.852941176470588</v>
+      </c>
+      <c r="H6">
+        <v>3.735294117647059</v>
+      </c>
+      <c r="I6">
+        <v>3.764705882352941</v>
+      </c>
+      <c r="J6">
+        <v>3.823529411764706</v>
+      </c>
+      <c r="K6">
+        <v>3.852941176470588</v>
+      </c>
+      <c r="L6">
+        <v>3.764705882352941</v>
+      </c>
+      <c r="M6">
+        <v>3.852941176470588</v>
+      </c>
+      <c r="N6">
+        <v>3.941176470588236</v>
+      </c>
+      <c r="O6">
+        <v>3.852941176470588</v>
+      </c>
+      <c r="P6">
+        <v>3.818627450980392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1333201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7">
+        <v>4.071428571428571</v>
+      </c>
+      <c r="E7">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="F7">
+        <v>4.071428571428571</v>
+      </c>
+      <c r="G7">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="H7">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="I7">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="J7">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="K7">
+        <v>4.071428571428571</v>
+      </c>
+      <c r="L7">
+        <v>3.928571428571428</v>
+      </c>
+      <c r="M7">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="N7">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="O7">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="P7">
+        <v>4.089285714285714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>1333202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="F8">
+        <v>3.785714285714286</v>
+      </c>
+      <c r="G8">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="H8">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="I8">
+        <v>4.071428571428571</v>
+      </c>
+      <c r="J8">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="K8">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="L8">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="M8">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="N8">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="O8">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="P8">
+        <v>4.148809523809525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1333203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9">
+        <v>4.071428571428571</v>
+      </c>
+      <c r="E9">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="F9">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="G9">
+        <v>4.5</v>
+      </c>
+      <c r="H9">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="I9">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="J9">
+        <v>4.5</v>
+      </c>
+      <c r="K9">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="L9">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="M9">
+        <v>4.642857142857143</v>
+      </c>
+      <c r="N9">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="O9">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="P9">
+        <v>4.333333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1333204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10">
+        <v>4.071428571428571</v>
+      </c>
+      <c r="E10">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="F10">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="G10">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="H10">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="I10">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="J10">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="K10">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="L10">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="M10">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="N10">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="O10">
+        <v>4.642857142857143</v>
+      </c>
+      <c r="P10">
+        <v>4.345238095238095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1333205</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="E11">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="F11">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="G11">
+        <v>4.642857142857143</v>
+      </c>
+      <c r="H11">
+        <v>4.642857142857143</v>
+      </c>
+      <c r="I11">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="J11">
+        <v>4.5</v>
+      </c>
+      <c r="K11">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="L11">
+        <v>4.642857142857143</v>
+      </c>
+      <c r="M11">
+        <v>4.5</v>
+      </c>
+      <c r="N11">
+        <v>4.5</v>
+      </c>
+      <c r="O11">
+        <v>4.785714285714286</v>
+      </c>
+      <c r="P11">
+        <v>4.577380952380953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>4300010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>3.194444444444445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>4300010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="G13">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="N13">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>4300015</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="E14">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F14">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="M14">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="O14">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="P14">
+        <v>4.027777777777778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>4300015</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15">
+        <v>3.852941176470588</v>
+      </c>
+      <c r="E15">
+        <v>3.735294117647059</v>
+      </c>
+      <c r="F15">
+        <v>3.794117647058823</v>
+      </c>
+      <c r="G15">
+        <v>3.735294117647059</v>
+      </c>
+      <c r="H15">
+        <v>3.676470588235294</v>
+      </c>
+      <c r="I15">
+        <v>3.735294117647059</v>
+      </c>
+      <c r="J15">
+        <v>3.823529411764706</v>
+      </c>
+      <c r="K15">
+        <v>3.794117647058823</v>
+      </c>
+      <c r="L15">
+        <v>3.794117647058823</v>
+      </c>
+      <c r="M15">
+        <v>3.764705882352941</v>
+      </c>
+      <c r="N15">
+        <v>3.588235294117647</v>
+      </c>
+      <c r="O15">
+        <v>3.705882352941177</v>
+      </c>
+      <c r="P15">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>4300015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16">
+        <v>3.596491228070176</v>
+      </c>
+      <c r="E16">
+        <v>3.56140350877193</v>
+      </c>
+      <c r="F16">
+        <v>3.596491228070176</v>
+      </c>
+      <c r="G16">
+        <v>3.596491228070176</v>
+      </c>
+      <c r="H16">
+        <v>3.596491228070176</v>
+      </c>
+      <c r="I16">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="J16">
+        <v>3.631578947368421</v>
+      </c>
+      <c r="K16">
+        <v>3.631578947368421</v>
+      </c>
+      <c r="L16">
+        <v>3.596491228070176</v>
+      </c>
+      <c r="M16">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.614035087719298</v>
+      </c>
+      <c r="O16">
+        <v>3.631578947368421</v>
+      </c>
+      <c r="P16">
+        <v>3.615497076023392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>4300021</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>4.8</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>4.8</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>4.966666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>4311101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>4.944444444444445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>4311102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>4.916666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>4311601</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20">
+        <v>4.652173913043478</v>
+      </c>
+      <c r="E20">
+        <v>4.434782608695652</v>
+      </c>
+      <c r="F20">
+        <v>4.478260869565218</v>
+      </c>
+      <c r="G20">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="H20">
+        <v>4.434782608695652</v>
+      </c>
+      <c r="I20">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="J20">
+        <v>4.434782608695652</v>
+      </c>
+      <c r="K20">
+        <v>4.391304347826087</v>
+      </c>
+      <c r="L20">
+        <v>4.478260869565218</v>
+      </c>
+      <c r="M20">
+        <v>3.869565217391304</v>
+      </c>
+      <c r="N20">
+        <v>4.565217391304348</v>
+      </c>
+      <c r="O20">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="P20">
+        <v>4.427536231884058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>4311602</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>4.391304347826087</v>
+      </c>
+      <c r="E21">
+        <v>4.565217391304348</v>
+      </c>
+      <c r="F21">
+        <v>4.608695652173913</v>
+      </c>
+      <c r="G21">
+        <v>4.739130434782608</v>
+      </c>
+      <c r="H21">
+        <v>4.565217391304348</v>
+      </c>
+      <c r="I21">
+        <v>4.739130434782608</v>
+      </c>
+      <c r="J21">
+        <v>4.608695652173913</v>
+      </c>
+      <c r="K21">
+        <v>4.608695652173913</v>
+      </c>
+      <c r="L21">
+        <v>4.739130434782608</v>
+      </c>
+      <c r="M21">
+        <v>4.608695652173913</v>
+      </c>
+      <c r="N21">
+        <v>4.695652173913044</v>
+      </c>
+      <c r="O21">
+        <v>4.739130434782608</v>
+      </c>
+      <c r="P21">
+        <v>4.634057971014493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>4311602</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22">
+        <v>3.608695652173913</v>
+      </c>
+      <c r="E22">
+        <v>3.173913043478261</v>
+      </c>
+      <c r="F22">
+        <v>3.043478260869565</v>
+      </c>
+      <c r="G22">
+        <v>3.08695652173913</v>
+      </c>
+      <c r="H22">
+        <v>2.956521739130435</v>
+      </c>
+      <c r="I22">
+        <v>3.173913043478261</v>
+      </c>
+      <c r="J22">
+        <v>3.130434782608696</v>
+      </c>
+      <c r="K22">
+        <v>3.08695652173913</v>
+      </c>
+      <c r="L22">
+        <v>2.826086956521739</v>
+      </c>
+      <c r="M22">
+        <v>2.782608695652174</v>
+      </c>
+      <c r="N22">
+        <v>2.739130434782609</v>
+      </c>
+      <c r="O22">
+        <v>2.695652173913043</v>
+      </c>
+      <c r="P22">
+        <v>3.02536231884058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>4311602</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="E23">
+        <v>4.304347826086956</v>
+      </c>
+      <c r="F23">
+        <v>4.304347826086956</v>
+      </c>
+      <c r="G23">
+        <v>4.391304347826087</v>
+      </c>
+      <c r="H23">
+        <v>4.478260869565218</v>
+      </c>
+      <c r="I23">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="J23">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="K23">
+        <v>4.478260869565218</v>
+      </c>
+      <c r="L23">
+        <v>4.391304347826087</v>
+      </c>
+      <c r="M23">
+        <v>4.434782608695652</v>
+      </c>
+      <c r="N23">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="O23">
+        <v>4.391304347826087</v>
+      </c>
+      <c r="P23">
+        <v>4.409420289855071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>4311603</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24">
+        <v>4.304347826086956</v>
+      </c>
+      <c r="E24">
+        <v>4.304347826086956</v>
+      </c>
+      <c r="F24">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="G24">
+        <v>4.434782608695652</v>
+      </c>
+      <c r="H24">
+        <v>4.173913043478261</v>
+      </c>
+      <c r="I24">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="J24">
+        <v>4.434782608695652</v>
+      </c>
+      <c r="K24">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="L24">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="M24">
+        <v>4.217391304347826</v>
+      </c>
+      <c r="N24">
+        <v>4.391304347826087</v>
+      </c>
+      <c r="O24">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="P24">
+        <v>4.36231884057971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>4331101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25">
+        <v>4.5</v>
+      </c>
+      <c r="E25">
+        <v>4.125</v>
+      </c>
+      <c r="F25">
+        <v>4.5</v>
+      </c>
+      <c r="G25">
+        <v>4.625</v>
+      </c>
+      <c r="H25">
+        <v>4.375</v>
+      </c>
+      <c r="I25">
+        <v>4.5</v>
+      </c>
+      <c r="J25">
+        <v>4.75</v>
+      </c>
+      <c r="K25">
+        <v>4.5</v>
+      </c>
+      <c r="L25">
+        <v>4.5</v>
+      </c>
+      <c r="M25">
+        <v>4.375</v>
+      </c>
+      <c r="N25">
+        <v>4.875</v>
+      </c>
+      <c r="O25">
+        <v>4.625</v>
+      </c>
+      <c r="P25">
+        <v>4.520833333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>4331102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26">
+        <v>3.875</v>
+      </c>
+      <c r="E26">
+        <v>3.5</v>
+      </c>
+      <c r="F26">
+        <v>3.5</v>
+      </c>
+      <c r="G26">
+        <v>3.25</v>
+      </c>
+      <c r="H26">
+        <v>3.625</v>
+      </c>
+      <c r="I26">
+        <v>3.875</v>
+      </c>
+      <c r="J26">
+        <v>4.25</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>3.5</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>3.78125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>4331103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27">
+        <v>4.5</v>
+      </c>
+      <c r="E27">
+        <v>3.875</v>
+      </c>
+      <c r="F27">
+        <v>4.125</v>
+      </c>
+      <c r="G27">
+        <v>4.25</v>
+      </c>
+      <c r="H27">
+        <v>4.5</v>
+      </c>
+      <c r="I27">
+        <v>4.75</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>4.375</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>3.625</v>
+      </c>
+      <c r="N27">
+        <v>4.125</v>
+      </c>
+      <c r="O27">
+        <v>4.125</v>
+      </c>
+      <c r="P27">
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>4331104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28">
+        <v>4.75</v>
+      </c>
+      <c r="E28">
+        <v>4.125</v>
+      </c>
+      <c r="F28">
+        <v>4.5</v>
+      </c>
+      <c r="G28">
+        <v>4.75</v>
+      </c>
+      <c r="H28">
+        <v>4.625</v>
+      </c>
+      <c r="I28">
+        <v>4.625</v>
+      </c>
+      <c r="J28">
+        <v>4.625</v>
+      </c>
+      <c r="K28">
+        <v>4.75</v>
+      </c>
+      <c r="L28">
+        <v>4.625</v>
+      </c>
+      <c r="M28">
+        <v>4.5</v>
+      </c>
+      <c r="N28">
+        <v>4.625</v>
+      </c>
+      <c r="O28">
+        <v>4.875</v>
+      </c>
+      <c r="P28">
+        <v>4.614583333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>4331105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29">
+        <v>4.375</v>
+      </c>
+      <c r="E29">
+        <v>4.125</v>
+      </c>
+      <c r="F29">
+        <v>4.25</v>
+      </c>
+      <c r="G29">
+        <v>4.125</v>
+      </c>
+      <c r="H29">
+        <v>3.875</v>
+      </c>
+      <c r="I29">
+        <v>4.375</v>
+      </c>
+      <c r="J29">
+        <v>4.125</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>4.375</v>
+      </c>
+      <c r="N29">
+        <v>4.125</v>
+      </c>
+      <c r="O29">
+        <v>4.5</v>
+      </c>
+      <c r="P29">
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>4351102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>4351103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>4.8</v>
+      </c>
+      <c r="P31">
+        <v>4.983333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>4351104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>4351105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>4351107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>4351108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40485,10 +42248,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -40496,609 +42259,295 @@
         <v>1313201</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C2">
-        <v>3.654411764705882</v>
+        <v>3.397058823529412</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1313201</v>
+        <v>1313202</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>3.139705882352942</v>
+        <v>3.936274509803921</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1313202</v>
+        <v>1313203</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>3.936274509803921</v>
+        <v>3.644607843137255</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1313203</v>
+        <v>1333201</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>3.470588235294118</v>
+        <v>4.089285714285714</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1313203</v>
+        <v>1333202</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>3.818627450980392</v>
+        <v>4.148809523809525</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1333201</v>
+        <v>1333203</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>4.089285714285714</v>
+        <v>4.333333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1333202</v>
+        <v>1333204</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C8">
-        <v>4.148809523809525</v>
+        <v>4.345238095238095</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1333203</v>
+        <v>1333205</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>4.333333333333333</v>
+        <v>4.577380952380953</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1333204</v>
+        <v>4300010</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="C10">
-        <v>4.345238095238095</v>
+        <v>3.930555555555556</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1333205</v>
+        <v>4300015</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>4.577380952380953</v>
+        <v>3.797758284600389</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4300010</v>
+        <v>4300021</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>3.194444444444445</v>
+        <v>4.966666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>4300010</v>
+        <v>4311101</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C13">
-        <v>4.666666666666667</v>
+        <v>4.944444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>4300015</v>
+        <v>4311102</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>4.027777777777778</v>
+        <v>4.916666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>4300015</v>
+        <v>4311601</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>3.75</v>
+        <v>4.427536231884058</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>4300015</v>
+        <v>4311602</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>3.615497076023392</v>
+        <v>4.022946859903382</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>4300021</v>
+        <v>4311603</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C17">
-        <v>4.966666666666667</v>
+        <v>4.36231884057971</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>4311101</v>
+        <v>4331101</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>4.944444444444445</v>
+        <v>4.520833333333333</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>4311102</v>
+        <v>4331102</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>4.916666666666667</v>
+        <v>3.78125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>4311601</v>
+        <v>4331103</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>4.427536231884058</v>
+        <v>4.1875</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>4311602</v>
+        <v>4331104</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>4.634057971014493</v>
+        <v>4.614583333333333</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>4311602</v>
+        <v>4331105</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>3.02536231884058</v>
+        <v>4.1875</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>4311602</v>
+        <v>4351102</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="C23">
-        <v>4.409420289855071</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>4311603</v>
+        <v>4351103</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="C24">
-        <v>4.36231884057971</v>
+        <v>4.983333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>4331101</v>
+        <v>4351104</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C25">
-        <v>4.520833333333333</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4331102</v>
+        <v>4351105</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="C26">
-        <v>3.78125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>4331103</v>
+        <v>4351107</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>4.1875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>4331104</v>
+        <v>4351108</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="C28">
-        <v>4.614583333333333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>4331105</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29">
-        <v>4.1875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>4351102</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>4351103</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31">
-        <v>4.983333333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>4351104</v>
-      </c>
-      <c r="B32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>4351105</v>
-      </c>
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>4351107</v>
-      </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>4351108</v>
-      </c>
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1313201</v>
-      </c>
-      <c r="B2">
-        <v>3.397058823529412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1313202</v>
-      </c>
-      <c r="B3">
-        <v>3.936274509803921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1313203</v>
-      </c>
-      <c r="B4">
-        <v>3.644607843137255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1333201</v>
-      </c>
-      <c r="B5">
-        <v>4.089285714285714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1333202</v>
-      </c>
-      <c r="B6">
-        <v>4.148809523809525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1333203</v>
-      </c>
-      <c r="B7">
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1333204</v>
-      </c>
-      <c r="B8">
-        <v>4.345238095238095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1333205</v>
-      </c>
-      <c r="B9">
-        <v>4.577380952380953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>4300010</v>
-      </c>
-      <c r="B10">
-        <v>3.930555555555556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>4300015</v>
-      </c>
-      <c r="B11">
-        <v>3.79775828460039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>4300021</v>
-      </c>
-      <c r="B12">
-        <v>4.966666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>4311101</v>
-      </c>
-      <c r="B13">
-        <v>4.944444444444445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>4311102</v>
-      </c>
-      <c r="B14">
-        <v>4.916666666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>4311601</v>
-      </c>
-      <c r="B15">
-        <v>4.427536231884058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>4311602</v>
-      </c>
-      <c r="B16">
-        <v>4.022946859903382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>4311603</v>
-      </c>
-      <c r="B17">
-        <v>4.36231884057971</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>4331101</v>
-      </c>
-      <c r="B18">
-        <v>4.520833333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>4331102</v>
-      </c>
-      <c r="B19">
-        <v>3.78125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>4331103</v>
-      </c>
-      <c r="B20">
-        <v>4.1875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>4331104</v>
-      </c>
-      <c r="B21">
-        <v>4.614583333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>4331105</v>
-      </c>
-      <c r="B22">
-        <v>4.1875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>4351102</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>4351103</v>
-      </c>
-      <c r="B24">
-        <v>4.983333333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>4351104</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>4351105</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>4351107</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>4351108</v>
-      </c>
-      <c r="B28">
         <v>5</v>
       </c>
     </row>
@@ -41109,13 +42558,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -41123,380 +42572,1745 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>100</v>
       </c>
       <c r="B2">
         <v>1333205</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="E2">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="F2">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="G2">
+        <v>4.642857142857143</v>
+      </c>
+      <c r="H2">
+        <v>4.642857142857143</v>
+      </c>
+      <c r="I2">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="J2">
+        <v>4.5</v>
+      </c>
+      <c r="K2">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="L2">
+        <v>4.642857142857143</v>
+      </c>
+      <c r="M2">
+        <v>4.5</v>
+      </c>
+      <c r="N2">
+        <v>4.5</v>
+      </c>
+      <c r="O2">
+        <v>4.785714285714286</v>
+      </c>
+      <c r="P2">
         <v>4.577380952380953</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>100</v>
       </c>
       <c r="B3">
         <v>4311102</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
         <v>4.916666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>100</v>
       </c>
       <c r="B4">
         <v>4311602</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>4.391304347826087</v>
+      </c>
+      <c r="E4">
+        <v>4.565217391304348</v>
+      </c>
+      <c r="F4">
+        <v>4.608695652173913</v>
+      </c>
+      <c r="G4">
+        <v>4.739130434782608</v>
+      </c>
+      <c r="H4">
+        <v>4.565217391304348</v>
+      </c>
+      <c r="I4">
+        <v>4.739130434782608</v>
+      </c>
+      <c r="J4">
+        <v>4.608695652173913</v>
+      </c>
+      <c r="K4">
+        <v>4.608695652173913</v>
+      </c>
+      <c r="L4">
+        <v>4.739130434782608</v>
+      </c>
+      <c r="M4">
+        <v>4.608695652173913</v>
+      </c>
+      <c r="N4">
+        <v>4.695652173913044</v>
+      </c>
+      <c r="O4">
+        <v>4.739130434782608</v>
+      </c>
+      <c r="P4">
         <v>4.634057971014493</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>100</v>
       </c>
       <c r="B5">
         <v>4351104</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>100</v>
       </c>
       <c r="B6">
         <v>4351108</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>102</v>
       </c>
       <c r="B7">
         <v>1333203</v>
       </c>
-      <c r="C7">
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>4.071428571428571</v>
+      </c>
+      <c r="E7">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="F7">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="G7">
+        <v>4.5</v>
+      </c>
+      <c r="H7">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="I7">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="J7">
+        <v>4.5</v>
+      </c>
+      <c r="K7">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="L7">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="M7">
+        <v>4.642857142857143</v>
+      </c>
+      <c r="N7">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="O7">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="P7">
+        <v>4.333333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>102</v>
       </c>
       <c r="B8">
         <v>4311601</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <v>4.652173913043478</v>
+      </c>
+      <c r="E8">
+        <v>4.434782608695652</v>
+      </c>
+      <c r="F8">
+        <v>4.478260869565218</v>
+      </c>
+      <c r="G8">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="H8">
+        <v>4.434782608695652</v>
+      </c>
+      <c r="I8">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="J8">
+        <v>4.434782608695652</v>
+      </c>
+      <c r="K8">
+        <v>4.391304347826087</v>
+      </c>
+      <c r="L8">
+        <v>4.478260869565218</v>
+      </c>
+      <c r="M8">
+        <v>3.869565217391304</v>
+      </c>
+      <c r="N8">
+        <v>4.565217391304348</v>
+      </c>
+      <c r="O8">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="P8">
         <v>4.427536231884058</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>102</v>
       </c>
       <c r="B9">
         <v>4351107</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>105</v>
       </c>
       <c r="B10">
         <v>4300010</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
         <v>3.194444444444445</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>105</v>
       </c>
       <c r="B11">
         <v>4300015</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="E11">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F11">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="M11">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="O11">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="P11">
         <v>4.027777777777778</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>105</v>
       </c>
       <c r="B12">
         <v>4311602</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>3.608695652173913</v>
+      </c>
+      <c r="E12">
+        <v>3.173913043478261</v>
+      </c>
+      <c r="F12">
+        <v>3.043478260869565</v>
+      </c>
+      <c r="G12">
+        <v>3.08695652173913</v>
+      </c>
+      <c r="H12">
+        <v>2.956521739130435</v>
+      </c>
+      <c r="I12">
+        <v>3.173913043478261</v>
+      </c>
+      <c r="J12">
+        <v>3.130434782608696</v>
+      </c>
+      <c r="K12">
+        <v>3.08695652173913</v>
+      </c>
+      <c r="L12">
+        <v>2.826086956521739</v>
+      </c>
+      <c r="M12">
+        <v>2.782608695652174</v>
+      </c>
+      <c r="N12">
+        <v>2.739130434782609</v>
+      </c>
+      <c r="O12">
+        <v>2.695652173913043</v>
+      </c>
+      <c r="P12">
         <v>3.02536231884058</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>104</v>
       </c>
       <c r="B13">
         <v>1333202</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="F13">
+        <v>3.785714285714286</v>
+      </c>
+      <c r="G13">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="H13">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="I13">
+        <v>4.071428571428571</v>
+      </c>
+      <c r="J13">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="K13">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="L13">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="M13">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="N13">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="O13">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="P13">
         <v>4.148809523809525</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>104</v>
       </c>
       <c r="B14">
         <v>4300015</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>3.852941176470588</v>
+      </c>
+      <c r="E14">
+        <v>3.735294117647059</v>
+      </c>
+      <c r="F14">
+        <v>3.794117647058823</v>
+      </c>
+      <c r="G14">
+        <v>3.735294117647059</v>
+      </c>
+      <c r="H14">
+        <v>3.676470588235294</v>
+      </c>
+      <c r="I14">
+        <v>3.735294117647059</v>
+      </c>
+      <c r="J14">
+        <v>3.823529411764706</v>
+      </c>
+      <c r="K14">
+        <v>3.794117647058823</v>
+      </c>
+      <c r="L14">
+        <v>3.794117647058823</v>
+      </c>
+      <c r="M14">
+        <v>3.764705882352941</v>
+      </c>
+      <c r="N14">
+        <v>3.588235294117647</v>
+      </c>
+      <c r="O14">
+        <v>3.705882352941177</v>
+      </c>
+      <c r="P14">
         <v>3.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>104</v>
       </c>
       <c r="B15">
         <v>4311101</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
         <v>4.944444444444445</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>104</v>
       </c>
       <c r="B16">
         <v>4311602</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="E16">
+        <v>4.304347826086956</v>
+      </c>
+      <c r="F16">
+        <v>4.304347826086956</v>
+      </c>
+      <c r="G16">
+        <v>4.391304347826087</v>
+      </c>
+      <c r="H16">
+        <v>4.478260869565218</v>
+      </c>
+      <c r="I16">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="J16">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="K16">
+        <v>4.478260869565218</v>
+      </c>
+      <c r="L16">
+        <v>4.391304347826087</v>
+      </c>
+      <c r="M16">
+        <v>4.434782608695652</v>
+      </c>
+      <c r="N16">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="O16">
+        <v>4.391304347826087</v>
+      </c>
+      <c r="P16">
         <v>4.409420289855071</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>99</v>
       </c>
       <c r="B17">
         <v>1313203</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>3.382352941176471</v>
+      </c>
+      <c r="E17">
+        <v>3.558823529411764</v>
+      </c>
+      <c r="F17">
         <v>3.470588235294118</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="G17">
+        <v>3.470588235294118</v>
+      </c>
+      <c r="H17">
+        <v>3.411764705882353</v>
+      </c>
+      <c r="I17">
+        <v>3.558823529411764</v>
+      </c>
+      <c r="J17">
+        <v>3.411764705882353</v>
+      </c>
+      <c r="K17">
+        <v>3.529411764705882</v>
+      </c>
+      <c r="L17">
+        <v>3.441176470588236</v>
+      </c>
+      <c r="M17">
+        <v>3.352941176470588</v>
+      </c>
+      <c r="N17">
+        <v>3.5</v>
+      </c>
+      <c r="O17">
+        <v>3.558823529411764</v>
+      </c>
+      <c r="P17">
+        <v>3.470588235294117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>99</v>
       </c>
       <c r="B18">
         <v>4311603</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>4.304347826086956</v>
+      </c>
+      <c r="E18">
+        <v>4.304347826086956</v>
+      </c>
+      <c r="F18">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="G18">
+        <v>4.434782608695652</v>
+      </c>
+      <c r="H18">
+        <v>4.173913043478261</v>
+      </c>
+      <c r="I18">
+        <v>4.521739130434782</v>
+      </c>
+      <c r="J18">
+        <v>4.434782608695652</v>
+      </c>
+      <c r="K18">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="L18">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="M18">
+        <v>4.217391304347826</v>
+      </c>
+      <c r="N18">
+        <v>4.391304347826087</v>
+      </c>
+      <c r="O18">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="P18">
         <v>4.36231884057971</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>99</v>
       </c>
       <c r="B19">
         <v>4331103</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>4.5</v>
+      </c>
+      <c r="E19">
+        <v>3.875</v>
+      </c>
+      <c r="F19">
+        <v>4.125</v>
+      </c>
+      <c r="G19">
+        <v>4.25</v>
+      </c>
+      <c r="H19">
+        <v>4.5</v>
+      </c>
+      <c r="I19">
+        <v>4.75</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>4.375</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>3.625</v>
+      </c>
+      <c r="N19">
+        <v>4.125</v>
+      </c>
+      <c r="O19">
+        <v>4.125</v>
+      </c>
+      <c r="P19">
         <v>4.1875</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>99</v>
       </c>
       <c r="B20">
         <v>4351103</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>4.8</v>
+      </c>
+      <c r="P20">
         <v>4.983333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>101</v>
       </c>
       <c r="B21">
         <v>1313201</v>
       </c>
-      <c r="C21">
-        <v>3.654411764705882</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21">
+        <v>3.676470588235294</v>
+      </c>
+      <c r="E21">
+        <v>3.647058823529412</v>
+      </c>
+      <c r="F21">
+        <v>3.676470588235294</v>
+      </c>
+      <c r="G21">
+        <v>3.647058823529412</v>
+      </c>
+      <c r="H21">
+        <v>3.617647058823529</v>
+      </c>
+      <c r="I21">
+        <v>3.794117647058823</v>
+      </c>
+      <c r="J21">
+        <v>3.676470588235294</v>
+      </c>
+      <c r="K21">
+        <v>3.588235294117647</v>
+      </c>
+      <c r="L21">
+        <v>3.617647058823529</v>
+      </c>
+      <c r="M21">
+        <v>3.647058823529412</v>
+      </c>
+      <c r="N21">
+        <v>3.529411764705882</v>
+      </c>
+      <c r="O21">
+        <v>3.735294117647059</v>
+      </c>
+      <c r="P21">
+        <v>3.654411764705883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>101</v>
       </c>
       <c r="B22">
         <v>1313202</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>4.058823529411764</v>
+      </c>
+      <c r="E22">
+        <v>3.911764705882353</v>
+      </c>
+      <c r="F22">
+        <v>3.911764705882353</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>3.911764705882353</v>
+      </c>
+      <c r="I22">
+        <v>4.029411764705882</v>
+      </c>
+      <c r="J22">
+        <v>3.941176470588236</v>
+      </c>
+      <c r="K22">
+        <v>3.823529411764706</v>
+      </c>
+      <c r="L22">
+        <v>4.029411764705882</v>
+      </c>
+      <c r="M22">
+        <v>3.764705882352941</v>
+      </c>
+      <c r="N22">
+        <v>4.029411764705882</v>
+      </c>
+      <c r="O22">
+        <v>3.823529411764706</v>
+      </c>
+      <c r="P22">
         <v>3.936274509803921</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>101</v>
       </c>
       <c r="B23">
         <v>4300010</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="G23">
         <v>4.666666666666667</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="N23">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>101</v>
       </c>
       <c r="B24">
         <v>4331101</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <v>4.5</v>
+      </c>
+      <c r="E24">
+        <v>4.125</v>
+      </c>
+      <c r="F24">
+        <v>4.5</v>
+      </c>
+      <c r="G24">
+        <v>4.625</v>
+      </c>
+      <c r="H24">
+        <v>4.375</v>
+      </c>
+      <c r="I24">
+        <v>4.5</v>
+      </c>
+      <c r="J24">
+        <v>4.75</v>
+      </c>
+      <c r="K24">
+        <v>4.5</v>
+      </c>
+      <c r="L24">
+        <v>4.5</v>
+      </c>
+      <c r="M24">
+        <v>4.375</v>
+      </c>
+      <c r="N24">
+        <v>4.875</v>
+      </c>
+      <c r="O24">
+        <v>4.625</v>
+      </c>
+      <c r="P24">
         <v>4.520833333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>101</v>
       </c>
       <c r="B25">
         <v>4351105</v>
       </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>103</v>
       </c>
       <c r="B26">
         <v>1333201</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26">
+        <v>4.071428571428571</v>
+      </c>
+      <c r="E26">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="F26">
+        <v>4.071428571428571</v>
+      </c>
+      <c r="G26">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="H26">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="I26">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="J26">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="K26">
+        <v>4.071428571428571</v>
+      </c>
+      <c r="L26">
+        <v>3.928571428571428</v>
+      </c>
+      <c r="M26">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="N26">
+        <v>4.142857142857143</v>
+      </c>
+      <c r="O26">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="P26">
         <v>4.089285714285714</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>103</v>
       </c>
       <c r="B27">
         <v>4331104</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>4.75</v>
+      </c>
+      <c r="E27">
+        <v>4.125</v>
+      </c>
+      <c r="F27">
+        <v>4.5</v>
+      </c>
+      <c r="G27">
+        <v>4.75</v>
+      </c>
+      <c r="H27">
+        <v>4.625</v>
+      </c>
+      <c r="I27">
+        <v>4.625</v>
+      </c>
+      <c r="J27">
+        <v>4.625</v>
+      </c>
+      <c r="K27">
+        <v>4.75</v>
+      </c>
+      <c r="L27">
+        <v>4.625</v>
+      </c>
+      <c r="M27">
+        <v>4.5</v>
+      </c>
+      <c r="N27">
+        <v>4.625</v>
+      </c>
+      <c r="O27">
+        <v>4.875</v>
+      </c>
+      <c r="P27">
         <v>4.614583333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>97</v>
       </c>
       <c r="B28">
         <v>1313201</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>3.294117647058823</v>
+      </c>
+      <c r="E28">
+        <v>3.117647058823529</v>
+      </c>
+      <c r="F28">
+        <v>3.235294117647059</v>
+      </c>
+      <c r="G28">
+        <v>3.205882352941177</v>
+      </c>
+      <c r="H28">
+        <v>3.088235294117647</v>
+      </c>
+      <c r="I28">
+        <v>3.147058823529412</v>
+      </c>
+      <c r="J28">
+        <v>3.117647058823529</v>
+      </c>
+      <c r="K28">
+        <v>3.117647058823529</v>
+      </c>
+      <c r="L28">
+        <v>3.058823529411764</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>3.147058823529412</v>
+      </c>
+      <c r="O28">
+        <v>3.147058823529412</v>
+      </c>
+      <c r="P28">
         <v>3.139705882352942</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>97</v>
       </c>
       <c r="B29">
         <v>4300015</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>3.596491228070176</v>
+      </c>
+      <c r="E29">
+        <v>3.56140350877193</v>
+      </c>
+      <c r="F29">
+        <v>3.596491228070176</v>
+      </c>
+      <c r="G29">
+        <v>3.596491228070176</v>
+      </c>
+      <c r="H29">
+        <v>3.596491228070176</v>
+      </c>
+      <c r="I29">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="J29">
+        <v>3.631578947368421</v>
+      </c>
+      <c r="K29">
+        <v>3.631578947368421</v>
+      </c>
+      <c r="L29">
+        <v>3.596491228070176</v>
+      </c>
+      <c r="M29">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="N29">
+        <v>3.614035087719298</v>
+      </c>
+      <c r="O29">
+        <v>3.631578947368421</v>
+      </c>
+      <c r="P29">
         <v>3.615497076023392</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>97</v>
       </c>
       <c r="B30">
         <v>4300021</v>
       </c>
-      <c r="C30">
-        <v>4.966666666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>4.8</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>4.8</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <v>4.966666666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>97</v>
       </c>
       <c r="B31">
         <v>4331102</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31">
+        <v>3.875</v>
+      </c>
+      <c r="E31">
+        <v>3.5</v>
+      </c>
+      <c r="F31">
+        <v>3.5</v>
+      </c>
+      <c r="G31">
+        <v>3.25</v>
+      </c>
+      <c r="H31">
+        <v>3.625</v>
+      </c>
+      <c r="I31">
+        <v>3.875</v>
+      </c>
+      <c r="J31">
+        <v>4.25</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>3.5</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
         <v>3.78125</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>98</v>
       </c>
       <c r="B32">
         <v>1313203</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32">
+        <v>3.852941176470588</v>
+      </c>
+      <c r="E32">
+        <v>3.617647058823529</v>
+      </c>
+      <c r="F32">
+        <v>3.911764705882353</v>
+      </c>
+      <c r="G32">
+        <v>3.852941176470588</v>
+      </c>
+      <c r="H32">
+        <v>3.735294117647059</v>
+      </c>
+      <c r="I32">
+        <v>3.764705882352941</v>
+      </c>
+      <c r="J32">
+        <v>3.823529411764706</v>
+      </c>
+      <c r="K32">
+        <v>3.852941176470588</v>
+      </c>
+      <c r="L32">
+        <v>3.764705882352941</v>
+      </c>
+      <c r="M32">
+        <v>3.852941176470588</v>
+      </c>
+      <c r="N32">
+        <v>3.941176470588236</v>
+      </c>
+      <c r="O32">
+        <v>3.852941176470588</v>
+      </c>
+      <c r="P32">
         <v>3.818627450980392</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>98</v>
       </c>
       <c r="B33">
         <v>1333204</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>4.071428571428571</v>
+      </c>
+      <c r="E33">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="F33">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="G33">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="H33">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="I33">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="J33">
+        <v>4.214285714285714</v>
+      </c>
+      <c r="K33">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="L33">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="M33">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="N33">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="O33">
+        <v>4.642857142857143</v>
+      </c>
+      <c r="P33">
         <v>4.345238095238095</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>98</v>
       </c>
       <c r="B34">
         <v>4331105</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>4.375</v>
+      </c>
+      <c r="E34">
+        <v>4.125</v>
+      </c>
+      <c r="F34">
+        <v>4.25</v>
+      </c>
+      <c r="G34">
+        <v>4.125</v>
+      </c>
+      <c r="H34">
+        <v>3.875</v>
+      </c>
+      <c r="I34">
+        <v>4.375</v>
+      </c>
+      <c r="J34">
+        <v>4.125</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>4.375</v>
+      </c>
+      <c r="N34">
+        <v>4.125</v>
+      </c>
+      <c r="O34">
+        <v>4.5</v>
+      </c>
+      <c r="P34">
         <v>4.1875</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>98</v>
       </c>
       <c r="B35">
         <v>4351102</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35">
         <v>5</v>
       </c>
     </row>
@@ -41600,13 +44414,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -41620,13 +44434,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -41640,13 +44487,46 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>4.350000000000001</v>
-      </c>
-      <c r="F2" t="s">
+        <v>4.4</v>
+      </c>
+      <c r="F2">
+        <v>4.466666666666667</v>
+      </c>
+      <c r="G2">
+        <v>4.066666666666666</v>
+      </c>
+      <c r="H2">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="I2">
+        <v>4.4</v>
+      </c>
+      <c r="J2">
+        <v>4.4</v>
+      </c>
+      <c r="K2">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="L2">
+        <v>4.466666666666667</v>
+      </c>
+      <c r="M2">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="N2">
+        <v>4.4</v>
+      </c>
+      <c r="O2">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="P2">
+        <v>4.466666666666667</v>
+      </c>
+      <c r="Q2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -41660,13 +44540,46 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>4.258333333333334</v>
-      </c>
-      <c r="F3" t="s">
+        <v>4.4</v>
+      </c>
+      <c r="F3">
+        <v>3.95</v>
+      </c>
+      <c r="G3">
+        <v>4.175</v>
+      </c>
+      <c r="H3">
+        <v>4.2</v>
+      </c>
+      <c r="I3">
+        <v>4.2</v>
+      </c>
+      <c r="J3">
+        <v>4.425</v>
+      </c>
+      <c r="K3">
+        <v>4.35</v>
+      </c>
+      <c r="L3">
+        <v>4.325</v>
+      </c>
+      <c r="M3">
+        <v>4.225</v>
+      </c>
+      <c r="N3">
+        <v>4.075</v>
+      </c>
+      <c r="O3">
+        <v>4.35</v>
+      </c>
+      <c r="P3">
+        <v>4.425</v>
+      </c>
+      <c r="Q3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -41680,13 +44593,46 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>4.992857142857143</v>
-      </c>
-      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>4.971428571428572</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>4.971428571428572</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>4.971428571428572</v>
+      </c>
+      <c r="Q4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -41700,13 +44646,46 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>3.561624649859944</v>
-      </c>
-      <c r="F5" t="s">
+        <v>3.609243697478992</v>
+      </c>
+      <c r="F5">
+        <v>3.533613445378151</v>
+      </c>
+      <c r="G5">
+        <v>3.588235294117647</v>
+      </c>
+      <c r="H5">
+        <v>3.584033613445378</v>
+      </c>
+      <c r="I5">
+        <v>3.525210084033613</v>
+      </c>
+      <c r="J5">
+        <v>3.600840336134454</v>
+      </c>
+      <c r="K5">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="L5">
+        <v>3.550420168067227</v>
+      </c>
+      <c r="M5">
+        <v>3.546218487394958</v>
+      </c>
+      <c r="N5">
+        <v>3.512605042016807</v>
+      </c>
+      <c r="O5">
+        <v>3.546218487394958</v>
+      </c>
+      <c r="P5">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="Q5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -41720,13 +44699,46 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>4.298809523809523</v>
-      </c>
-      <c r="F6" t="s">
+        <v>4.128571428571429</v>
+      </c>
+      <c r="F6">
+        <v>3.971428571428572</v>
+      </c>
+      <c r="G6">
+        <v>4.257142857142857</v>
+      </c>
+      <c r="H6">
+        <v>4.371428571428571</v>
+      </c>
+      <c r="I6">
+        <v>4.385714285714286</v>
+      </c>
+      <c r="J6">
+        <v>4.228571428571429</v>
+      </c>
+      <c r="K6">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="L6">
+        <v>4.314285714285714</v>
+      </c>
+      <c r="M6">
+        <v>4.342857142857143</v>
+      </c>
+      <c r="N6">
+        <v>4.4</v>
+      </c>
+      <c r="O6">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="P6">
+        <v>4.471428571428572</v>
+      </c>
+      <c r="Q6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -41740,9 +44752,42 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>4.190821256038648</v>
-      </c>
-      <c r="F7" t="s">
+        <v>4.260869565217392</v>
+      </c>
+      <c r="F7">
+        <v>4.159420289855072</v>
+      </c>
+      <c r="G7">
+        <v>4.210144927536231</v>
+      </c>
+      <c r="H7">
+        <v>4.202898550724638</v>
+      </c>
+      <c r="I7">
+        <v>4.123188405797102</v>
+      </c>
+      <c r="J7">
+        <v>4.311594202898551</v>
+      </c>
+      <c r="K7">
+        <v>4.231884057971015</v>
+      </c>
+      <c r="L7">
+        <v>4.210144927536231</v>
+      </c>
+      <c r="M7">
+        <v>4.181159420289855</v>
+      </c>
+      <c r="N7">
+        <v>4.043478260869565</v>
+      </c>
+      <c r="O7">
+        <v>4.188405797101449</v>
+      </c>
+      <c r="P7">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="Q7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -41753,42 +44798,162 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>4.600000000000001</v>
       </c>
       <c r="B2">
-        <v>4.533730158730159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>26</v>
+        <v>4.472222222222222</v>
+      </c>
+      <c r="C2">
+        <v>4.413888888888889</v>
+      </c>
+      <c r="D2">
+        <v>4.488888888888889</v>
+      </c>
+      <c r="E2">
+        <v>4.523809523809525</v>
+      </c>
+      <c r="F2">
+        <v>4.608333333333333</v>
+      </c>
+      <c r="G2">
+        <v>4.538888888888889</v>
+      </c>
+      <c r="H2">
+        <v>4.587698412698413</v>
+      </c>
+      <c r="I2">
+        <v>4.519444444444445</v>
+      </c>
+      <c r="J2">
+        <v>4.491666666666667</v>
+      </c>
+      <c r="K2">
+        <v>4.538888888888889</v>
+      </c>
+      <c r="L2">
+        <v>4.621031746031746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>3.868907563025211</v>
       </c>
       <c r="B3">
-        <v>3.930217086834734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>27</v>
+        <v>3.752521008403361</v>
+      </c>
+      <c r="C3">
+        <v>3.922689075630252</v>
+      </c>
+      <c r="D3">
+        <v>3.977731092436975</v>
+      </c>
+      <c r="E3">
+        <v>3.95546218487395</v>
+      </c>
+      <c r="F3">
+        <v>3.914705882352941</v>
+      </c>
+      <c r="G3">
+        <v>3.964285714285714</v>
+      </c>
+      <c r="H3">
+        <v>3.93235294117647</v>
+      </c>
+      <c r="I3">
+        <v>3.94453781512605</v>
+      </c>
+      <c r="J3">
+        <v>3.956302521008404</v>
+      </c>
+      <c r="K3">
+        <v>3.951680672268907</v>
+      </c>
+      <c r="L3">
+        <v>4.021428571428571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>4.260869565217392</v>
       </c>
       <c r="B4">
-        <v>4.190821256038648</v>
+        <v>4.159420289855072</v>
+      </c>
+      <c r="C4">
+        <v>4.210144927536231</v>
+      </c>
+      <c r="D4">
+        <v>4.202898550724638</v>
+      </c>
+      <c r="E4">
+        <v>4.123188405797102</v>
+      </c>
+      <c r="F4">
+        <v>4.311594202898551</v>
+      </c>
+      <c r="G4">
+        <v>4.231884057971015</v>
+      </c>
+      <c r="H4">
+        <v>4.210144927536231</v>
+      </c>
+      <c r="I4">
+        <v>4.181159420289855</v>
+      </c>
+      <c r="J4">
+        <v>4.043478260869565</v>
+      </c>
+      <c r="K4">
+        <v>4.188405797101449</v>
+      </c>
+      <c r="L4">
+        <v>4.166666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -41798,32 +44963,86 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
-        <v>2023</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
+        <v>4.299780781877969</v>
+      </c>
+      <c r="B2">
+        <v>4.18018816222141</v>
       </c>
       <c r="C2">
-        <v>4.275407650983099</v>
+        <v>4.216198290910567</v>
+      </c>
+      <c r="D2">
+        <v>4.270837900377543</v>
+      </c>
+      <c r="E2">
+        <v>4.267590224495596</v>
+      </c>
+      <c r="F2">
+        <v>4.327667661267405</v>
+      </c>
+      <c r="G2">
+        <v>4.296187025534851</v>
+      </c>
+      <c r="H2">
+        <v>4.306324341330735</v>
+      </c>
+      <c r="I2">
+        <v>4.271428063979215</v>
+      </c>
+      <c r="J2">
+        <v>4.238513883814395</v>
+      </c>
+      <c r="K2">
+        <v>4.284738968050989</v>
+      </c>
+      <c r="L2">
+        <v>4.345436507936508</v>
       </c>
     </row>
   </sheetData>

--- a/feedback_report.xlsx
+++ b/feedback_report.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4800" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4895" uniqueCount="144">
   <si>
     <t>Year</t>
   </si>
@@ -343,6 +343,87 @@
   </si>
   <si>
     <t>Average_Score</t>
+  </si>
+  <si>
+    <t>1313201</t>
+  </si>
+  <si>
+    <t>1313202</t>
+  </si>
+  <si>
+    <t>1313203</t>
+  </si>
+  <si>
+    <t>1333201</t>
+  </si>
+  <si>
+    <t>1333202</t>
+  </si>
+  <si>
+    <t>1333203</t>
+  </si>
+  <si>
+    <t>1333204</t>
+  </si>
+  <si>
+    <t>1333205</t>
+  </si>
+  <si>
+    <t>4300010</t>
+  </si>
+  <si>
+    <t>4300015</t>
+  </si>
+  <si>
+    <t>4300021</t>
+  </si>
+  <si>
+    <t>4311101</t>
+  </si>
+  <si>
+    <t>4311102</t>
+  </si>
+  <si>
+    <t>4311601</t>
+  </si>
+  <si>
+    <t>4311602</t>
+  </si>
+  <si>
+    <t>4311603</t>
+  </si>
+  <si>
+    <t>4331101</t>
+  </si>
+  <si>
+    <t>4331102</t>
+  </si>
+  <si>
+    <t>4331103</t>
+  </si>
+  <si>
+    <t>4331104</t>
+  </si>
+  <si>
+    <t>4331105</t>
+  </si>
+  <si>
+    <t>4351102</t>
+  </si>
+  <si>
+    <t>4351103</t>
+  </si>
+  <si>
+    <t>4351104</t>
+  </si>
+  <si>
+    <t>4351105</t>
+  </si>
+  <si>
+    <t>4351107</t>
+  </si>
+  <si>
+    <t>4351108</t>
   </si>
   <si>
     <t>Overall_Average</t>
@@ -40538,8 +40619,8 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2">
-        <v>1313201</v>
+      <c r="A2" t="s">
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -40588,8 +40669,8 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3">
-        <v>1313201</v>
+      <c r="A3" t="s">
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -40638,8 +40719,8 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4">
-        <v>1313202</v>
+      <c r="A4" t="s">
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -40688,8 +40769,8 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5">
-        <v>1313203</v>
+      <c r="A5" t="s">
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -40738,8 +40819,8 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6">
-        <v>1313203</v>
+      <c r="A6" t="s">
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -40788,8 +40869,8 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7">
-        <v>1333201</v>
+      <c r="A7" t="s">
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -40838,8 +40919,8 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8">
-        <v>1333202</v>
+      <c r="A8" t="s">
+        <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -40888,8 +40969,8 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9">
-        <v>1333203</v>
+      <c r="A9" t="s">
+        <v>112</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
@@ -40938,8 +41019,8 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10">
-        <v>1333204</v>
+      <c r="A10" t="s">
+        <v>113</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -40988,8 +41069,8 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11">
-        <v>1333205</v>
+      <c r="A11" t="s">
+        <v>114</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -41038,8 +41119,8 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12">
-        <v>4300010</v>
+      <c r="A12" t="s">
+        <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -41088,8 +41169,8 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13">
-        <v>4300010</v>
+      <c r="A13" t="s">
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -41138,8 +41219,8 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14">
-        <v>4300015</v>
+      <c r="A14" t="s">
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
@@ -41188,8 +41269,8 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15">
-        <v>4300015</v>
+      <c r="A15" t="s">
+        <v>116</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -41238,8 +41319,8 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16">
-        <v>4300015</v>
+      <c r="A16" t="s">
+        <v>116</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
@@ -41288,8 +41369,8 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17">
-        <v>4300021</v>
+      <c r="A17" t="s">
+        <v>117</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -41338,8 +41419,8 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18">
-        <v>4311101</v>
+      <c r="A18" t="s">
+        <v>118</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -41388,8 +41469,8 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19">
-        <v>4311102</v>
+      <c r="A19" t="s">
+        <v>119</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
@@ -41438,8 +41519,8 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20">
-        <v>4311601</v>
+      <c r="A20" t="s">
+        <v>120</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -41488,8 +41569,8 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21">
-        <v>4311602</v>
+      <c r="A21" t="s">
+        <v>121</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -41538,8 +41619,8 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22">
-        <v>4311602</v>
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
@@ -41588,8 +41669,8 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23">
-        <v>4311602</v>
+      <c r="A23" t="s">
+        <v>121</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
@@ -41638,8 +41719,8 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24">
-        <v>4311603</v>
+      <c r="A24" t="s">
+        <v>122</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -41688,8 +41769,8 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25">
-        <v>4331101</v>
+      <c r="A25" t="s">
+        <v>123</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
@@ -41738,8 +41819,8 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26">
-        <v>4331102</v>
+      <c r="A26" t="s">
+        <v>124</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -41788,8 +41869,8 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27">
-        <v>4331103</v>
+      <c r="A27" t="s">
+        <v>125</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
@@ -41838,8 +41919,8 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28">
-        <v>4331104</v>
+      <c r="A28" t="s">
+        <v>126</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
@@ -41888,8 +41969,8 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29">
-        <v>4331105</v>
+      <c r="A29" t="s">
+        <v>127</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
@@ -41938,8 +42019,8 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30">
-        <v>4351102</v>
+      <c r="A30" t="s">
+        <v>128</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -41988,8 +42069,8 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31">
-        <v>4351103</v>
+      <c r="A31" t="s">
+        <v>129</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -42038,8 +42119,8 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32">
-        <v>4351104</v>
+      <c r="A32" t="s">
+        <v>130</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -42088,8 +42169,8 @@
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33">
-        <v>4351105</v>
+      <c r="A33" t="s">
+        <v>131</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
@@ -42138,8 +42219,8 @@
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34">
-        <v>4351107</v>
+      <c r="A34" t="s">
+        <v>132</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
@@ -42188,8 +42269,8 @@
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35">
-        <v>4351108</v>
+      <c r="A35" t="s">
+        <v>133</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
@@ -42258,12 +42339,12 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1313201</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -42273,8 +42354,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1313202</v>
+      <c r="A3" t="s">
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -42284,8 +42365,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1313203</v>
+      <c r="A4" t="s">
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -42295,8 +42376,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
-        <v>1333201</v>
+      <c r="A5" t="s">
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -42306,8 +42387,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1333202</v>
+      <c r="A6" t="s">
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -42317,8 +42398,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
-        <v>1333203</v>
+      <c r="A7" t="s">
+        <v>112</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
@@ -42328,8 +42409,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
-        <v>1333204</v>
+      <c r="A8" t="s">
+        <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -42339,8 +42420,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
-        <v>1333205</v>
+      <c r="A9" t="s">
+        <v>114</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -42350,8 +42431,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
-        <v>4300010</v>
+      <c r="A10" t="s">
+        <v>115</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -42361,8 +42442,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
-        <v>4300015</v>
+      <c r="A11" t="s">
+        <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -42372,8 +42453,8 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
-        <v>4300021</v>
+      <c r="A12" t="s">
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -42383,8 +42464,8 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
-        <v>4311101</v>
+      <c r="A13" t="s">
+        <v>118</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -42394,8 +42475,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
-        <v>4311102</v>
+      <c r="A14" t="s">
+        <v>119</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
@@ -42405,8 +42486,8 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
-        <v>4311601</v>
+      <c r="A15" t="s">
+        <v>120</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -42416,8 +42497,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
-        <v>4311602</v>
+      <c r="A16" t="s">
+        <v>121</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -42427,8 +42508,8 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
-        <v>4311603</v>
+      <c r="A17" t="s">
+        <v>122</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -42438,8 +42519,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
-        <v>4331101</v>
+      <c r="A18" t="s">
+        <v>123</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
@@ -42449,8 +42530,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
-        <v>4331102</v>
+      <c r="A19" t="s">
+        <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
@@ -42460,8 +42541,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
-        <v>4331103</v>
+      <c r="A20" t="s">
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
@@ -42471,8 +42552,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
-        <v>4331104</v>
+      <c r="A21" t="s">
+        <v>126</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
@@ -42482,8 +42563,8 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
-        <v>4331105</v>
+      <c r="A22" t="s">
+        <v>127</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -42493,8 +42574,8 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
-        <v>4351102</v>
+      <c r="A23" t="s">
+        <v>128</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -42504,8 +42585,8 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
-        <v>4351103</v>
+      <c r="A24" t="s">
+        <v>129</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
@@ -42515,8 +42596,8 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
-        <v>4351104</v>
+      <c r="A25" t="s">
+        <v>130</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -42526,8 +42607,8 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
-        <v>4351105</v>
+      <c r="A26" t="s">
+        <v>131</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
@@ -42537,8 +42618,8 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
-        <v>4351107</v>
+      <c r="A27" t="s">
+        <v>132</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
@@ -42548,8 +42629,8 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
-        <v>4351108</v>
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
@@ -42625,8 +42706,8 @@
       <c r="A2" t="s">
         <v>100</v>
       </c>
-      <c r="B2">
-        <v>1333205</v>
+      <c r="B2" t="s">
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -42675,8 +42756,8 @@
       <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="B3">
-        <v>4311102</v>
+      <c r="B3" t="s">
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -42725,8 +42806,8 @@
       <c r="A4" t="s">
         <v>100</v>
       </c>
-      <c r="B4">
-        <v>4311602</v>
+      <c r="B4" t="s">
+        <v>121</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -42775,8 +42856,8 @@
       <c r="A5" t="s">
         <v>100</v>
       </c>
-      <c r="B5">
-        <v>4351104</v>
+      <c r="B5" t="s">
+        <v>130</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -42825,8 +42906,8 @@
       <c r="A6" t="s">
         <v>100</v>
       </c>
-      <c r="B6">
-        <v>4351108</v>
+      <c r="B6" t="s">
+        <v>133</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -42875,8 +42956,8 @@
       <c r="A7" t="s">
         <v>102</v>
       </c>
-      <c r="B7">
-        <v>1333203</v>
+      <c r="B7" t="s">
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -42925,8 +43006,8 @@
       <c r="A8" t="s">
         <v>102</v>
       </c>
-      <c r="B8">
-        <v>4311601</v>
+      <c r="B8" t="s">
+        <v>120</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -42975,8 +43056,8 @@
       <c r="A9" t="s">
         <v>102</v>
       </c>
-      <c r="B9">
-        <v>4351107</v>
+      <c r="B9" t="s">
+        <v>132</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -43025,8 +43106,8 @@
       <c r="A10" t="s">
         <v>105</v>
       </c>
-      <c r="B10">
-        <v>4300010</v>
+      <c r="B10" t="s">
+        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
@@ -43075,8 +43156,8 @@
       <c r="A11" t="s">
         <v>105</v>
       </c>
-      <c r="B11">
-        <v>4300015</v>
+      <c r="B11" t="s">
+        <v>116</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -43125,8 +43206,8 @@
       <c r="A12" t="s">
         <v>105</v>
       </c>
-      <c r="B12">
-        <v>4311602</v>
+      <c r="B12" t="s">
+        <v>121</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
@@ -43175,8 +43256,8 @@
       <c r="A13" t="s">
         <v>104</v>
       </c>
-      <c r="B13">
-        <v>1333202</v>
+      <c r="B13" t="s">
+        <v>111</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
@@ -43225,8 +43306,8 @@
       <c r="A14" t="s">
         <v>104</v>
       </c>
-      <c r="B14">
-        <v>4300015</v>
+      <c r="B14" t="s">
+        <v>116</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -43275,8 +43356,8 @@
       <c r="A15" t="s">
         <v>104</v>
       </c>
-      <c r="B15">
-        <v>4311101</v>
+      <c r="B15" t="s">
+        <v>118</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
@@ -43325,8 +43406,8 @@
       <c r="A16" t="s">
         <v>104</v>
       </c>
-      <c r="B16">
-        <v>4311602</v>
+      <c r="B16" t="s">
+        <v>121</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
@@ -43375,8 +43456,8 @@
       <c r="A17" t="s">
         <v>99</v>
       </c>
-      <c r="B17">
-        <v>1313203</v>
+      <c r="B17" t="s">
+        <v>109</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
@@ -43425,8 +43506,8 @@
       <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="B18">
-        <v>4311603</v>
+      <c r="B18" t="s">
+        <v>122</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
@@ -43475,8 +43556,8 @@
       <c r="A19" t="s">
         <v>99</v>
       </c>
-      <c r="B19">
-        <v>4331103</v>
+      <c r="B19" t="s">
+        <v>125</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -43525,8 +43606,8 @@
       <c r="A20" t="s">
         <v>99</v>
       </c>
-      <c r="B20">
-        <v>4351103</v>
+      <c r="B20" t="s">
+        <v>129</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -43575,8 +43656,8 @@
       <c r="A21" t="s">
         <v>101</v>
       </c>
-      <c r="B21">
-        <v>1313201</v>
+      <c r="B21" t="s">
+        <v>107</v>
       </c>
       <c r="C21" t="s">
         <v>57</v>
@@ -43625,8 +43706,8 @@
       <c r="A22" t="s">
         <v>101</v>
       </c>
-      <c r="B22">
-        <v>1313202</v>
+      <c r="B22" t="s">
+        <v>108</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
@@ -43675,8 +43756,8 @@
       <c r="A23" t="s">
         <v>101</v>
       </c>
-      <c r="B23">
-        <v>4300010</v>
+      <c r="B23" t="s">
+        <v>115</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
@@ -43725,8 +43806,8 @@
       <c r="A24" t="s">
         <v>101</v>
       </c>
-      <c r="B24">
-        <v>4331101</v>
+      <c r="B24" t="s">
+        <v>123</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
@@ -43775,8 +43856,8 @@
       <c r="A25" t="s">
         <v>101</v>
       </c>
-      <c r="B25">
-        <v>4351105</v>
+      <c r="B25" t="s">
+        <v>131</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -43825,8 +43906,8 @@
       <c r="A26" t="s">
         <v>103</v>
       </c>
-      <c r="B26">
-        <v>1333201</v>
+      <c r="B26" t="s">
+        <v>110</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
@@ -43875,8 +43956,8 @@
       <c r="A27" t="s">
         <v>103</v>
       </c>
-      <c r="B27">
-        <v>4331104</v>
+      <c r="B27" t="s">
+        <v>126</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -43925,8 +44006,8 @@
       <c r="A28" t="s">
         <v>97</v>
       </c>
-      <c r="B28">
-        <v>1313201</v>
+      <c r="B28" t="s">
+        <v>107</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
@@ -43975,8 +44056,8 @@
       <c r="A29" t="s">
         <v>97</v>
       </c>
-      <c r="B29">
-        <v>4300015</v>
+      <c r="B29" t="s">
+        <v>116</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
@@ -44025,8 +44106,8 @@
       <c r="A30" t="s">
         <v>97</v>
       </c>
-      <c r="B30">
-        <v>4300021</v>
+      <c r="B30" t="s">
+        <v>117</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -44075,8 +44156,8 @@
       <c r="A31" t="s">
         <v>97</v>
       </c>
-      <c r="B31">
-        <v>4331102</v>
+      <c r="B31" t="s">
+        <v>124</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
@@ -44125,8 +44206,8 @@
       <c r="A32" t="s">
         <v>98</v>
       </c>
-      <c r="B32">
-        <v>1313203</v>
+      <c r="B32" t="s">
+        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
@@ -44175,8 +44256,8 @@
       <c r="A33" t="s">
         <v>98</v>
       </c>
-      <c r="B33">
-        <v>1333204</v>
+      <c r="B33" t="s">
+        <v>113</v>
       </c>
       <c r="C33" t="s">
         <v>49</v>
@@ -44225,8 +44306,8 @@
       <c r="A34" t="s">
         <v>98</v>
       </c>
-      <c r="B34">
-        <v>4331105</v>
+      <c r="B34" t="s">
+        <v>127</v>
       </c>
       <c r="C34" t="s">
         <v>45</v>
@@ -44275,8 +44356,8 @@
       <c r="A35" t="s">
         <v>98</v>
       </c>
-      <c r="B35">
-        <v>4351102</v>
+      <c r="B35" t="s">
+        <v>128</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -44339,7 +44420,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -44477,7 +44558,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -44530,7 +44611,7 @@
         <v>4.466666666666667</v>
       </c>
       <c r="Q2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -44583,7 +44664,7 @@
         <v>4.425</v>
       </c>
       <c r="Q3" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -44636,7 +44717,7 @@
         <v>4.971428571428572</v>
       </c>
       <c r="Q4" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -44689,7 +44770,7 @@
         <v>3.571428571428572</v>
       </c>
       <c r="Q5" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -44742,7 +44823,7 @@
         <v>4.471428571428572</v>
       </c>
       <c r="Q6" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -44795,7 +44876,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="Q7" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -45094,36 +45175,36 @@
         <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F2">
         <v>3.654411764705883</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H2">
         <v>3.139705882352942</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J2">
         <v>3.397058823529412</v>
@@ -45131,31 +45212,31 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F3">
         <v>3.936274509803921</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J3">
         <v>3.936274509803921</v>
@@ -45163,28 +45244,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E4">
         <v>3.470588235294117</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I4">
         <v>3.818627450980392</v>
@@ -45195,31 +45276,31 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G5">
         <v>4.089285714285714</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J5">
         <v>4.089285714285714</v>
@@ -45227,31 +45308,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D6">
         <v>4.148809523809525</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J6">
         <v>4.148809523809525</v>
@@ -45259,31 +45340,31 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B7">
         <v>4.333333333333334</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J7">
         <v>4.333333333333334</v>
@@ -45291,28 +45372,28 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I8">
         <v>4.345238095238095</v>
@@ -45326,28 +45407,28 @@
         <v>4.577380952380953</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J9">
         <v>4.577380952380953</v>
@@ -45355,31 +45436,31 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C10">
         <v>3.194444444444445</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F10">
         <v>4.666666666666667</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J10">
         <v>3.930555555555556</v>
@@ -45387,10 +45468,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C11">
         <v>4.027777777777778</v>
@@ -45399,19 +45480,19 @@
         <v>3.75</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H11">
         <v>3.615497076023392</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J11">
         <v>3.797758284600389</v>
@@ -45419,31 +45500,31 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H12">
         <v>4.966666666666666</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J12">
         <v>4.966666666666666</v>
@@ -45451,31 +45532,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <v>4.944444444444445</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H13" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J13">
         <v>4.944444444444445</v>
@@ -45486,28 +45567,28 @@
         <v>4.916666666666667</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J14">
         <v>4.916666666666667</v>
@@ -45515,31 +45596,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B15">
         <v>4.427536231884058</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J15">
         <v>4.427536231884058</v>
@@ -45550,7 +45631,7 @@
         <v>4.634057971014493</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C16">
         <v>3.02536231884058</v>
@@ -45559,19 +45640,19 @@
         <v>4.409420289855071</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I16" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J16">
         <v>4.022946859903382</v>
@@ -45579,31 +45660,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E17">
         <v>4.36231884057971</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>4.36231884057971</v>
@@ -45611,31 +45692,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F18">
         <v>4.520833333333333</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J18">
         <v>4.520833333333333</v>
@@ -45643,31 +45724,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H19">
         <v>3.78125</v>
       </c>
       <c r="I19" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J19">
         <v>3.78125</v>
@@ -45675,31 +45756,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E20">
         <v>4.1875</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J20">
         <v>4.1875</v>
@@ -45707,31 +45788,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G21">
         <v>4.614583333333333</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I21" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J21">
         <v>4.614583333333333</v>
@@ -45739,28 +45820,28 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I22">
         <v>4.1875</v>
@@ -45771,28 +45852,28 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I23">
         <v>5</v>
@@ -45803,31 +45884,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E24">
         <v>4.983333333333333</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I24" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J24">
         <v>4.983333333333333</v>
@@ -45838,28 +45919,28 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J25">
         <v>5</v>
@@ -45867,31 +45948,31 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F26">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I26" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -45899,31 +45980,31 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H27" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -45934,28 +46015,28 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H28" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -45990,7 +46071,7 @@
         <v>4.337841386554622</v>
       </c>
       <c r="J29" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/feedback_report.xlsx
+++ b/feedback_report.xlsx
@@ -27,7 +27,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Odd_Even</t>
+    <t>Term</t>
   </si>
   <si>
     <t>Branch</t>

--- a/feedback_report.xlsx
+++ b/feedback_report.xlsx
@@ -8,21 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Original Data" sheetId="1" r:id="rId1"/>
-    <sheet name="subject_scores_faculty" sheetId="2" r:id="rId2"/>
-    <sheet name="subject_scores_overall" sheetId="3" r:id="rId3"/>
-    <sheet name="faculty_scores_subject" sheetId="4" r:id="rId4"/>
-    <sheet name="faculty_scores_overall" sheetId="5" r:id="rId5"/>
-    <sheet name="semester_scores" sheetId="6" r:id="rId6"/>
-    <sheet name="branch_scores" sheetId="7" r:id="rId7"/>
-    <sheet name="term_year_scores" sheetId="8" r:id="rId8"/>
-    <sheet name="correlation_matrix" sheetId="9" r:id="rId9"/>
+    <sheet name="subject_scores" sheetId="2" r:id="rId2"/>
+    <sheet name="faculty_scores" sheetId="3" r:id="rId3"/>
+    <sheet name="semester_scores" sheetId="4" r:id="rId4"/>
+    <sheet name="branch_scores" sheetId="5" r:id="rId5"/>
+    <sheet name="term_year_scores" sheetId="6" r:id="rId6"/>
+    <sheet name="correlation_matrix" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4895" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4735" uniqueCount="144">
   <si>
     <t>Year</t>
   </si>
@@ -342,7 +340,7 @@
     <t>Mr. M J Vadhwania</t>
   </si>
   <si>
-    <t>Average_Score</t>
+    <t>Score</t>
   </si>
   <si>
     <t>1313201</t>
@@ -426,28 +424,28 @@
     <t>4351108</t>
   </si>
   <si>
-    <t>Overall_Average</t>
+    <t>FI</t>
   </si>
   <si>
-    <t>Branch_Semester</t>
+    <t>EEEE</t>
   </si>
   <si>
-    <t>EC - 1</t>
+    <t>MMS</t>
   </si>
   <si>
-    <t>EC - 3</t>
+    <t>DMS</t>
   </si>
   <si>
-    <t>EC - 5</t>
+    <t>SY</t>
   </si>
   <si>
-    <t>ICT - 1</t>
+    <t>MRC</t>
   </si>
   <si>
-    <t>ICT - 3</t>
+    <t>MWC</t>
   </si>
   <si>
-    <t>IT - 1</t>
+    <t>ECEP</t>
   </si>
   <si>
     <t>Subject Overall</t>
@@ -40623,7 +40621,7 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>101</v>
@@ -40673,7 +40671,7 @@
         <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>97</v>
@@ -40723,7 +40721,7 @@
         <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -40923,7 +40921,7 @@
         <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
         <v>104</v>
@@ -41023,7 +41021,7 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
@@ -41223,7 +41221,7 @@
         <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
         <v>105</v>
@@ -41273,7 +41271,7 @@
         <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
         <v>104</v>
@@ -41323,7 +41321,7 @@
         <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
         <v>97</v>
@@ -41373,7 +41371,7 @@
         <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>97</v>
@@ -42073,7 +42071,7 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
         <v>99</v>
@@ -42123,7 +42121,7 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s">
         <v>100</v>
@@ -42223,7 +42221,7 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
         <v>102</v>
@@ -42325,318 +42323,480 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>4.763975155279503</v>
       </c>
       <c r="C2">
-        <v>3.397058823529412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4.798757763975155</v>
+      </c>
+      <c r="D2">
+        <v>4.75983436853002</v>
+      </c>
+      <c r="E2">
+        <v>4.87639751552795</v>
+      </c>
+      <c r="F2">
+        <v>4.774948240165632</v>
+      </c>
+      <c r="G2">
+        <v>4.833540372670807</v>
+      </c>
+      <c r="H2">
+        <v>4.821739130434783</v>
+      </c>
+      <c r="I2">
+        <v>4.836024844720496</v>
+      </c>
+      <c r="J2">
+        <v>4.87639751552795</v>
+      </c>
+      <c r="K2">
+        <v>4.821739130434783</v>
+      </c>
+      <c r="L2">
+        <v>4.839130434782609</v>
+      </c>
+      <c r="M2">
+        <v>4.904968944099378</v>
+      </c>
+      <c r="N2">
+        <v>4.825621118012423</v>
+      </c>
+      <c r="O2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>4.574534161490683</v>
       </c>
       <c r="C3">
-        <v>3.936274509803921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>4.43064182194617</v>
+      </c>
+      <c r="D3">
+        <v>4.611801242236025</v>
+      </c>
+      <c r="E3">
+        <v>4.615942028985507</v>
+      </c>
+      <c r="F3">
+        <v>4.62111801242236</v>
+      </c>
+      <c r="G3">
+        <v>4.554865424430642</v>
+      </c>
+      <c r="H3">
+        <v>4.644927536231884</v>
+      </c>
+      <c r="I3">
+        <v>4.559006211180124</v>
+      </c>
+      <c r="J3">
+        <v>4.635610766045549</v>
+      </c>
+      <c r="K3">
+        <v>4.504140786749482</v>
+      </c>
+      <c r="L3">
+        <v>4.640786749482402</v>
+      </c>
+      <c r="M3">
+        <v>4.650103519668737</v>
+      </c>
+      <c r="N3">
+        <v>4.58695652173913</v>
+      </c>
+      <c r="O3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
+        <v>105</v>
+      </c>
+      <c r="B4">
+        <v>3.758454106280193</v>
       </c>
       <c r="C4">
-        <v>3.644607843137255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>3.502415458937198</v>
+      </c>
+      <c r="D4">
+        <v>3.570048309178744</v>
+      </c>
+      <c r="E4">
+        <v>3.251207729468599</v>
+      </c>
+      <c r="F4">
+        <v>3.429951690821256</v>
+      </c>
+      <c r="G4">
+        <v>3.391304347826087</v>
+      </c>
+      <c r="H4">
+        <v>3.376811594202898</v>
+      </c>
+      <c r="I4">
+        <v>3.473429951690822</v>
+      </c>
+      <c r="J4">
+        <v>3.164251207729469</v>
+      </c>
+      <c r="K4">
+        <v>3.594202898550724</v>
+      </c>
+      <c r="L4">
+        <v>3.135265700483092</v>
+      </c>
+      <c r="M4">
+        <v>3.342995169082126</v>
+      </c>
+      <c r="N4">
+        <v>3.415861513687601</v>
+      </c>
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>4.300191815856778</v>
       </c>
       <c r="C5">
-        <v>4.089285714285714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>4.295624771647789</v>
+      </c>
+      <c r="D5">
+        <v>4.137711606381683</v>
+      </c>
+      <c r="E5">
+        <v>4.317363902082572</v>
+      </c>
+      <c r="F5">
+        <v>4.342254293021557</v>
+      </c>
+      <c r="G5">
+        <v>4.332115454877603</v>
+      </c>
+      <c r="H5">
+        <v>4.425602849835586</v>
+      </c>
+      <c r="I5">
+        <v>4.389523200584581</v>
+      </c>
+      <c r="J5">
+        <v>4.332069784435514</v>
+      </c>
+      <c r="K5">
+        <v>4.252253075143101</v>
+      </c>
+      <c r="L5">
+        <v>4.287586773839971</v>
+      </c>
+      <c r="M5">
+        <v>4.345725246620387</v>
+      </c>
+      <c r="N5">
+        <v>4.31316856452726</v>
+      </c>
+      <c r="O5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>4.296675191815857</v>
       </c>
       <c r="C6">
-        <v>4.148809523809525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4.18454283887468</v>
+      </c>
+      <c r="D6">
+        <v>4.279331841432225</v>
+      </c>
+      <c r="E6">
+        <v>4.288842710997443</v>
+      </c>
+      <c r="F6">
+        <v>4.271419437340153</v>
+      </c>
+      <c r="G6">
+        <v>4.457640664961636</v>
+      </c>
+      <c r="H6">
+        <v>4.211636828644501</v>
+      </c>
+      <c r="I6">
+        <v>4.313059462915601</v>
+      </c>
+      <c r="J6">
+        <v>4.197250639386189</v>
+      </c>
+      <c r="K6">
+        <v>4.048833120204604</v>
+      </c>
+      <c r="L6">
+        <v>4.254076086956522</v>
+      </c>
+      <c r="M6">
+        <v>4.207912404092071</v>
+      </c>
+      <c r="N6">
+        <v>4.25093510230179</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <v>4.313725490196078</v>
       </c>
       <c r="C7">
-        <v>4.333333333333334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>4.336764705882353</v>
+      </c>
+      <c r="D7">
+        <v>4.150980392156862</v>
+      </c>
+      <c r="E7">
+        <v>4.387745098039216</v>
+      </c>
+      <c r="F7">
+        <v>4.380882352941176</v>
+      </c>
+      <c r="G7">
+        <v>4.464705882352941</v>
+      </c>
+      <c r="H7">
+        <v>4.340196078431373</v>
+      </c>
+      <c r="I7">
+        <v>4.382352941176471</v>
+      </c>
+      <c r="J7">
+        <v>4.429411764705883</v>
+      </c>
+      <c r="K7">
+        <v>4.224019607843137</v>
+      </c>
+      <c r="L7">
+        <v>4.420098039215686</v>
+      </c>
+      <c r="M7">
+        <v>4.436764705882353</v>
+      </c>
+      <c r="N7">
+        <v>4.355637254901961</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>4.410714285714286</v>
       </c>
       <c r="C8">
-        <v>4.345238095238095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3.848214285714286</v>
+      </c>
+      <c r="D8">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="E8">
+        <v>4.482142857142858</v>
+      </c>
+      <c r="F8">
+        <v>4.455357142857142</v>
+      </c>
+      <c r="G8">
+        <v>4.383928571428571</v>
+      </c>
+      <c r="H8">
+        <v>4.419642857142858</v>
+      </c>
+      <c r="I8">
+        <v>4.410714285714286</v>
+      </c>
+      <c r="J8">
+        <v>4.276785714285714</v>
+      </c>
+      <c r="K8">
+        <v>4.321428571428571</v>
+      </c>
+      <c r="L8">
+        <v>4.383928571428571</v>
+      </c>
+      <c r="M8">
+        <v>4.544642857142858</v>
+      </c>
+      <c r="N8">
+        <v>4.351934523809524</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <v>3.94140221878225</v>
       </c>
       <c r="C9">
-        <v>4.577380952380953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>3.794762641898865</v>
+      </c>
+      <c r="D9">
+        <v>3.832946336429309</v>
+      </c>
+      <c r="E9">
+        <v>3.763093395252838</v>
+      </c>
+      <c r="F9">
+        <v>3.777431630546956</v>
+      </c>
+      <c r="G9">
+        <v>3.922181372549019</v>
+      </c>
+      <c r="H9">
+        <v>3.999806501547988</v>
+      </c>
+      <c r="I9">
+        <v>3.887306501547988</v>
+      </c>
+      <c r="J9">
+        <v>3.913828689370485</v>
+      </c>
+      <c r="K9">
+        <v>3.791666666666667</v>
+      </c>
+      <c r="L9">
+        <v>3.940273477812178</v>
+      </c>
+      <c r="M9">
+        <v>3.944659442724458</v>
+      </c>
+      <c r="N9">
+        <v>3.87577990626075</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
+        <v>98</v>
+      </c>
+      <c r="B10">
+        <v>4.32484243697479</v>
       </c>
       <c r="C10">
-        <v>3.930555555555556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11">
-        <v>3.797758284600389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12">
-        <v>4.966666666666666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13">
-        <v>4.944444444444445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14">
-        <v>4.916666666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15">
-        <v>4.427536231884058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16">
-        <v>4.022946859903382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17">
-        <v>4.36231884057971</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>4.520833333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>3.78125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20">
-        <v>4.1875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21">
-        <v>4.614583333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>4.1875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24">
-        <v>4.983333333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
+        <v>4.149947478991597</v>
+      </c>
+      <c r="D10">
+        <v>4.344012605042017</v>
+      </c>
+      <c r="E10">
+        <v>4.333771008403361</v>
+      </c>
+      <c r="F10">
+        <v>4.241859243697479</v>
+      </c>
+      <c r="G10">
+        <v>4.374212184873949</v>
+      </c>
+      <c r="H10">
+        <v>4.290703781512605</v>
+      </c>
+      <c r="I10">
+        <v>4.302521008403361</v>
+      </c>
+      <c r="J10">
+        <v>4.334033613445378</v>
+      </c>
+      <c r="K10">
+        <v>4.44984243697479</v>
+      </c>
+      <c r="L10">
+        <v>4.409401260504202</v>
+      </c>
+      <c r="M10">
+        <v>4.498949579831933</v>
+      </c>
+      <c r="N10">
+        <v>4.337841386554622</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -42646,7 +42806,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42654,1752 +42814,352 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>100</v>
+      <c r="A2">
+        <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>4.428571428571429</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>4.428571428571429</v>
+        <v>4.4</v>
       </c>
       <c r="F2">
-        <v>4.857142857142857</v>
+        <v>4.466666666666667</v>
       </c>
       <c r="G2">
-        <v>4.642857142857143</v>
+        <v>4.066666666666666</v>
       </c>
       <c r="H2">
-        <v>4.642857142857143</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="I2">
-        <v>4.428571428571429</v>
+        <v>4.4</v>
       </c>
       <c r="J2">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K2">
-        <v>4.571428571428571</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="L2">
-        <v>4.642857142857143</v>
+        <v>4.466666666666667</v>
       </c>
       <c r="M2">
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="N2">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O2">
-        <v>4.785714285714286</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="P2">
-        <v>4.577380952380953</v>
+        <v>4.466666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>100</v>
+      <c r="A3">
+        <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="F3">
-        <v>4.333333333333333</v>
+        <v>3.95</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>4.175</v>
       </c>
       <c r="H3">
-        <v>4.666666666666667</v>
+        <v>4.2</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>4.425</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>4.35</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>4.325</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>4.225</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>4.075</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>4.35</v>
       </c>
       <c r="P3">
-        <v>4.916666666666667</v>
+        <v>4.425</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>100</v>
+      <c r="A4">
+        <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>4.391304347826087</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>4.565217391304348</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>4.608695652173913</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>4.739130434782608</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>4.565217391304348</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>4.739130434782608</v>
+        <v>4.971428571428572</v>
       </c>
       <c r="J4">
-        <v>4.608695652173913</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>4.608695652173913</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>4.739130434782608</v>
+        <v>4.971428571428572</v>
       </c>
       <c r="M4">
-        <v>4.608695652173913</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>4.695652173913044</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>4.739130434782608</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>4.634057971014493</v>
+        <v>4.971428571428572</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>100</v>
+      <c r="A5">
+        <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>3.609243697478992</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>3.533613445378151</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3.588235294117647</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3.584033613445378</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3.525210084033613</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>3.600840336134454</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>3.550420168067227</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>3.546218487394958</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>3.512605042016807</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>3.546218487394958</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>3.571428571428572</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>100</v>
+      <c r="A6">
+        <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4.128571428571429</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>3.971428571428572</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>4.257142857142857</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4.371428571428571</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>4.385714285714286</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4.228571428571429</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>4.357142857142857</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>4.314285714285714</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>4.342857142857143</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>4.357142857142857</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>4.471428571428572</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>102</v>
+      <c r="A7">
+        <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>4.071428571428571</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>3.857142857142857</v>
+        <v>4.260869565217392</v>
       </c>
       <c r="F7">
-        <v>4.357142857142857</v>
+        <v>4.159420289855072</v>
       </c>
       <c r="G7">
-        <v>4.5</v>
+        <v>4.210144927536231</v>
       </c>
       <c r="H7">
-        <v>4.428571428571429</v>
+        <v>4.202898550724638</v>
       </c>
       <c r="I7">
-        <v>4.142857142857143</v>
+        <v>4.123188405797102</v>
       </c>
       <c r="J7">
-        <v>4.5</v>
+        <v>4.311594202898551</v>
       </c>
       <c r="K7">
-        <v>4.285714285714286</v>
+        <v>4.231884057971015</v>
       </c>
       <c r="L7">
-        <v>4.428571428571429</v>
+        <v>4.210144927536231</v>
       </c>
       <c r="M7">
-        <v>4.642857142857143</v>
+        <v>4.181159420289855</v>
       </c>
       <c r="N7">
-        <v>4.357142857142857</v>
+        <v>4.043478260869565</v>
       </c>
       <c r="O7">
-        <v>4.428571428571429</v>
+        <v>4.188405797101449</v>
       </c>
       <c r="P7">
-        <v>4.333333333333334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8">
-        <v>4.652173913043478</v>
-      </c>
-      <c r="E8">
-        <v>4.434782608695652</v>
-      </c>
-      <c r="F8">
-        <v>4.478260869565218</v>
-      </c>
-      <c r="G8">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="H8">
-        <v>4.434782608695652</v>
-      </c>
-      <c r="I8">
-        <v>4.521739130434782</v>
-      </c>
-      <c r="J8">
-        <v>4.434782608695652</v>
-      </c>
-      <c r="K8">
-        <v>4.391304347826087</v>
-      </c>
-      <c r="L8">
-        <v>4.478260869565218</v>
-      </c>
-      <c r="M8">
-        <v>3.869565217391304</v>
-      </c>
-      <c r="N8">
-        <v>4.565217391304348</v>
-      </c>
-      <c r="O8">
-        <v>4.521739130434782</v>
-      </c>
-      <c r="P8">
-        <v>4.427536231884058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="P9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="P10">
-        <v>3.194444444444445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="E11">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="F11">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="H11">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="M11">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="N11">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="O11">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="P11">
-        <v>4.027777777777778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12">
-        <v>3.608695652173913</v>
-      </c>
-      <c r="E12">
-        <v>3.173913043478261</v>
-      </c>
-      <c r="F12">
-        <v>3.043478260869565</v>
-      </c>
-      <c r="G12">
-        <v>3.08695652173913</v>
-      </c>
-      <c r="H12">
-        <v>2.956521739130435</v>
-      </c>
-      <c r="I12">
-        <v>3.173913043478261</v>
-      </c>
-      <c r="J12">
-        <v>3.130434782608696</v>
-      </c>
-      <c r="K12">
-        <v>3.08695652173913</v>
-      </c>
-      <c r="L12">
-        <v>2.826086956521739</v>
-      </c>
-      <c r="M12">
-        <v>2.782608695652174</v>
-      </c>
-      <c r="N12">
-        <v>2.739130434782609</v>
-      </c>
-      <c r="O12">
-        <v>2.695652173913043</v>
-      </c>
-      <c r="P12">
-        <v>3.02536231884058</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="F13">
-        <v>3.785714285714286</v>
-      </c>
-      <c r="G13">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="H13">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="I13">
-        <v>4.071428571428571</v>
-      </c>
-      <c r="J13">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="K13">
-        <v>4.285714285714286</v>
-      </c>
-      <c r="L13">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="M13">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="N13">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="O13">
-        <v>4.285714285714286</v>
-      </c>
-      <c r="P13">
-        <v>4.148809523809525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14">
-        <v>3.852941176470588</v>
-      </c>
-      <c r="E14">
-        <v>3.735294117647059</v>
-      </c>
-      <c r="F14">
-        <v>3.794117647058823</v>
-      </c>
-      <c r="G14">
-        <v>3.735294117647059</v>
-      </c>
-      <c r="H14">
-        <v>3.676470588235294</v>
-      </c>
-      <c r="I14">
-        <v>3.735294117647059</v>
-      </c>
-      <c r="J14">
-        <v>3.823529411764706</v>
-      </c>
-      <c r="K14">
-        <v>3.794117647058823</v>
-      </c>
-      <c r="L14">
-        <v>3.794117647058823</v>
-      </c>
-      <c r="M14">
-        <v>3.764705882352941</v>
-      </c>
-      <c r="N14">
-        <v>3.588235294117647</v>
-      </c>
-      <c r="O14">
-        <v>3.705882352941177</v>
-      </c>
-      <c r="P14">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
-      <c r="P15">
-        <v>4.944444444444445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="E16">
-        <v>4.304347826086956</v>
-      </c>
-      <c r="F16">
-        <v>4.304347826086956</v>
-      </c>
-      <c r="G16">
-        <v>4.391304347826087</v>
-      </c>
-      <c r="H16">
-        <v>4.478260869565218</v>
-      </c>
-      <c r="I16">
-        <v>4.521739130434782</v>
-      </c>
-      <c r="J16">
-        <v>4.521739130434782</v>
-      </c>
-      <c r="K16">
-        <v>4.478260869565218</v>
-      </c>
-      <c r="L16">
-        <v>4.391304347826087</v>
-      </c>
-      <c r="M16">
-        <v>4.434782608695652</v>
-      </c>
-      <c r="N16">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="O16">
-        <v>4.391304347826087</v>
-      </c>
-      <c r="P16">
-        <v>4.409420289855071</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17">
-        <v>3.382352941176471</v>
-      </c>
-      <c r="E17">
-        <v>3.558823529411764</v>
-      </c>
-      <c r="F17">
-        <v>3.470588235294118</v>
-      </c>
-      <c r="G17">
-        <v>3.470588235294118</v>
-      </c>
-      <c r="H17">
-        <v>3.411764705882353</v>
-      </c>
-      <c r="I17">
-        <v>3.558823529411764</v>
-      </c>
-      <c r="J17">
-        <v>3.411764705882353</v>
-      </c>
-      <c r="K17">
-        <v>3.529411764705882</v>
-      </c>
-      <c r="L17">
-        <v>3.441176470588236</v>
-      </c>
-      <c r="M17">
-        <v>3.352941176470588</v>
-      </c>
-      <c r="N17">
-        <v>3.5</v>
-      </c>
-      <c r="O17">
-        <v>3.558823529411764</v>
-      </c>
-      <c r="P17">
-        <v>3.470588235294117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18">
-        <v>4.304347826086956</v>
-      </c>
-      <c r="E18">
-        <v>4.304347826086956</v>
-      </c>
-      <c r="F18">
-        <v>4.521739130434782</v>
-      </c>
-      <c r="G18">
-        <v>4.434782608695652</v>
-      </c>
-      <c r="H18">
-        <v>4.173913043478261</v>
-      </c>
-      <c r="I18">
-        <v>4.521739130434782</v>
-      </c>
-      <c r="J18">
-        <v>4.434782608695652</v>
-      </c>
-      <c r="K18">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L18">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="M18">
-        <v>4.217391304347826</v>
-      </c>
-      <c r="N18">
-        <v>4.391304347826087</v>
-      </c>
-      <c r="O18">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="P18">
-        <v>4.36231884057971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19">
-        <v>4.5</v>
-      </c>
-      <c r="E19">
-        <v>3.875</v>
-      </c>
-      <c r="F19">
-        <v>4.125</v>
-      </c>
-      <c r="G19">
-        <v>4.25</v>
-      </c>
-      <c r="H19">
-        <v>4.5</v>
-      </c>
-      <c r="I19">
-        <v>4.75</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>4.375</v>
-      </c>
-      <c r="L19">
-        <v>4</v>
-      </c>
-      <c r="M19">
-        <v>3.625</v>
-      </c>
-      <c r="N19">
-        <v>4.125</v>
-      </c>
-      <c r="O19">
-        <v>4.125</v>
-      </c>
-      <c r="P19">
-        <v>4.1875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <v>4.8</v>
-      </c>
-      <c r="P20">
-        <v>4.983333333333333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21">
-        <v>3.676470588235294</v>
-      </c>
-      <c r="E21">
-        <v>3.647058823529412</v>
-      </c>
-      <c r="F21">
-        <v>3.676470588235294</v>
-      </c>
-      <c r="G21">
-        <v>3.647058823529412</v>
-      </c>
-      <c r="H21">
-        <v>3.617647058823529</v>
-      </c>
-      <c r="I21">
-        <v>3.794117647058823</v>
-      </c>
-      <c r="J21">
-        <v>3.676470588235294</v>
-      </c>
-      <c r="K21">
-        <v>3.588235294117647</v>
-      </c>
-      <c r="L21">
-        <v>3.617647058823529</v>
-      </c>
-      <c r="M21">
-        <v>3.647058823529412</v>
-      </c>
-      <c r="N21">
-        <v>3.529411764705882</v>
-      </c>
-      <c r="O21">
-        <v>3.735294117647059</v>
-      </c>
-      <c r="P21">
-        <v>3.654411764705883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22">
-        <v>4.058823529411764</v>
-      </c>
-      <c r="E22">
-        <v>3.911764705882353</v>
-      </c>
-      <c r="F22">
-        <v>3.911764705882353</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <v>3.911764705882353</v>
-      </c>
-      <c r="I22">
-        <v>4.029411764705882</v>
-      </c>
-      <c r="J22">
-        <v>3.941176470588236</v>
-      </c>
-      <c r="K22">
-        <v>3.823529411764706</v>
-      </c>
-      <c r="L22">
-        <v>4.029411764705882</v>
-      </c>
-      <c r="M22">
-        <v>3.764705882352941</v>
-      </c>
-      <c r="N22">
-        <v>4.029411764705882</v>
-      </c>
-      <c r="O22">
-        <v>3.823529411764706</v>
-      </c>
-      <c r="P22">
-        <v>3.936274509803921</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="G23">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
-      <c r="L23">
-        <v>5</v>
-      </c>
-      <c r="M23">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="N23">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="O23">
-        <v>5</v>
-      </c>
-      <c r="P23">
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24">
-        <v>4.5</v>
-      </c>
-      <c r="E24">
-        <v>4.125</v>
-      </c>
-      <c r="F24">
-        <v>4.5</v>
-      </c>
-      <c r="G24">
-        <v>4.625</v>
-      </c>
-      <c r="H24">
-        <v>4.375</v>
-      </c>
-      <c r="I24">
-        <v>4.5</v>
-      </c>
-      <c r="J24">
-        <v>4.75</v>
-      </c>
-      <c r="K24">
-        <v>4.5</v>
-      </c>
-      <c r="L24">
-        <v>4.5</v>
-      </c>
-      <c r="M24">
-        <v>4.375</v>
-      </c>
-      <c r="N24">
-        <v>4.875</v>
-      </c>
-      <c r="O24">
-        <v>4.625</v>
-      </c>
-      <c r="P24">
-        <v>4.520833333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-      <c r="L25">
-        <v>5</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-      <c r="N25">
-        <v>5</v>
-      </c>
-      <c r="O25">
-        <v>5</v>
-      </c>
-      <c r="P25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26">
-        <v>4.071428571428571</v>
-      </c>
-      <c r="E26">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="F26">
-        <v>4.071428571428571</v>
-      </c>
-      <c r="G26">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="H26">
-        <v>4.285714285714286</v>
-      </c>
-      <c r="I26">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="J26">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="K26">
-        <v>4.071428571428571</v>
-      </c>
-      <c r="L26">
-        <v>3.928571428571428</v>
-      </c>
-      <c r="M26">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="N26">
-        <v>4.142857142857143</v>
-      </c>
-      <c r="O26">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="P26">
-        <v>4.089285714285714</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27">
-        <v>4.75</v>
-      </c>
-      <c r="E27">
-        <v>4.125</v>
-      </c>
-      <c r="F27">
-        <v>4.5</v>
-      </c>
-      <c r="G27">
-        <v>4.75</v>
-      </c>
-      <c r="H27">
-        <v>4.625</v>
-      </c>
-      <c r="I27">
-        <v>4.625</v>
-      </c>
-      <c r="J27">
-        <v>4.625</v>
-      </c>
-      <c r="K27">
-        <v>4.75</v>
-      </c>
-      <c r="L27">
-        <v>4.625</v>
-      </c>
-      <c r="M27">
-        <v>4.5</v>
-      </c>
-      <c r="N27">
-        <v>4.625</v>
-      </c>
-      <c r="O27">
-        <v>4.875</v>
-      </c>
-      <c r="P27">
-        <v>4.614583333333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28">
-        <v>3.294117647058823</v>
-      </c>
-      <c r="E28">
-        <v>3.117647058823529</v>
-      </c>
-      <c r="F28">
-        <v>3.235294117647059</v>
-      </c>
-      <c r="G28">
-        <v>3.205882352941177</v>
-      </c>
-      <c r="H28">
-        <v>3.088235294117647</v>
-      </c>
-      <c r="I28">
-        <v>3.147058823529412</v>
-      </c>
-      <c r="J28">
-        <v>3.117647058823529</v>
-      </c>
-      <c r="K28">
-        <v>3.117647058823529</v>
-      </c>
-      <c r="L28">
-        <v>3.058823529411764</v>
-      </c>
-      <c r="M28">
-        <v>3</v>
-      </c>
-      <c r="N28">
-        <v>3.147058823529412</v>
-      </c>
-      <c r="O28">
-        <v>3.147058823529412</v>
-      </c>
-      <c r="P28">
-        <v>3.139705882352942</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29">
-        <v>3.596491228070176</v>
-      </c>
-      <c r="E29">
-        <v>3.56140350877193</v>
-      </c>
-      <c r="F29">
-        <v>3.596491228070176</v>
-      </c>
-      <c r="G29">
-        <v>3.596491228070176</v>
-      </c>
-      <c r="H29">
-        <v>3.596491228070176</v>
-      </c>
-      <c r="I29">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="J29">
-        <v>3.631578947368421</v>
-      </c>
-      <c r="K29">
-        <v>3.631578947368421</v>
-      </c>
-      <c r="L29">
-        <v>3.596491228070176</v>
-      </c>
-      <c r="M29">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="N29">
-        <v>3.614035087719298</v>
-      </c>
-      <c r="O29">
-        <v>3.631578947368421</v>
-      </c>
-      <c r="P29">
-        <v>3.615497076023392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>4.8</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30">
-        <v>4.8</v>
-      </c>
-      <c r="L30">
-        <v>5</v>
-      </c>
-      <c r="M30">
-        <v>5</v>
-      </c>
-      <c r="N30">
-        <v>5</v>
-      </c>
-      <c r="O30">
-        <v>5</v>
-      </c>
-      <c r="P30">
-        <v>4.966666666666666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31">
-        <v>3.875</v>
-      </c>
-      <c r="E31">
-        <v>3.5</v>
-      </c>
-      <c r="F31">
-        <v>3.5</v>
-      </c>
-      <c r="G31">
-        <v>3.25</v>
-      </c>
-      <c r="H31">
-        <v>3.625</v>
-      </c>
-      <c r="I31">
-        <v>3.875</v>
-      </c>
-      <c r="J31">
-        <v>4.25</v>
-      </c>
-      <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="L31">
-        <v>4</v>
-      </c>
-      <c r="M31">
-        <v>3.5</v>
-      </c>
-      <c r="N31">
-        <v>4</v>
-      </c>
-      <c r="O31">
-        <v>4</v>
-      </c>
-      <c r="P31">
-        <v>3.78125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32">
-        <v>3.852941176470588</v>
-      </c>
-      <c r="E32">
-        <v>3.617647058823529</v>
-      </c>
-      <c r="F32">
-        <v>3.911764705882353</v>
-      </c>
-      <c r="G32">
-        <v>3.852941176470588</v>
-      </c>
-      <c r="H32">
-        <v>3.735294117647059</v>
-      </c>
-      <c r="I32">
-        <v>3.764705882352941</v>
-      </c>
-      <c r="J32">
-        <v>3.823529411764706</v>
-      </c>
-      <c r="K32">
-        <v>3.852941176470588</v>
-      </c>
-      <c r="L32">
-        <v>3.764705882352941</v>
-      </c>
-      <c r="M32">
-        <v>3.852941176470588</v>
-      </c>
-      <c r="N32">
-        <v>3.941176470588236</v>
-      </c>
-      <c r="O32">
-        <v>3.852941176470588</v>
-      </c>
-      <c r="P32">
-        <v>3.818627450980392</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33">
-        <v>4.071428571428571</v>
-      </c>
-      <c r="E33">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="F33">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="G33">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="H33">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="I33">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="J33">
-        <v>4.214285714285714</v>
-      </c>
-      <c r="K33">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="L33">
-        <v>4.571428571428571</v>
-      </c>
-      <c r="M33">
-        <v>4.571428571428571</v>
-      </c>
-      <c r="N33">
-        <v>4.571428571428571</v>
-      </c>
-      <c r="O33">
-        <v>4.642857142857143</v>
-      </c>
-      <c r="P33">
-        <v>4.345238095238095</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34">
-        <v>4.375</v>
-      </c>
-      <c r="E34">
-        <v>4.125</v>
-      </c>
-      <c r="F34">
-        <v>4.25</v>
-      </c>
-      <c r="G34">
-        <v>4.125</v>
-      </c>
-      <c r="H34">
-        <v>3.875</v>
-      </c>
-      <c r="I34">
-        <v>4.375</v>
-      </c>
-      <c r="J34">
-        <v>4.125</v>
-      </c>
-      <c r="K34">
-        <v>4</v>
-      </c>
-      <c r="L34">
-        <v>4</v>
-      </c>
-      <c r="M34">
-        <v>4.375</v>
-      </c>
-      <c r="N34">
-        <v>4.125</v>
-      </c>
-      <c r="O34">
-        <v>4.5</v>
-      </c>
-      <c r="P34">
-        <v>4.1875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-      <c r="G35">
-        <v>5</v>
-      </c>
-      <c r="H35">
-        <v>5</v>
-      </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
-      <c r="J35">
-        <v>5</v>
-      </c>
-      <c r="K35">
-        <v>5</v>
-      </c>
-      <c r="L35">
-        <v>5</v>
-      </c>
-      <c r="M35">
-        <v>5</v>
-      </c>
-      <c r="N35">
-        <v>5</v>
-      </c>
-      <c r="O35">
-        <v>5</v>
-      </c>
-      <c r="P35">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -44408,483 +43168,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2">
-        <v>4.825621118012423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3">
-        <v>4.58695652173913</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4">
-        <v>3.415861513687601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5">
-        <v>4.31316856452726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6">
-        <v>4.25093510230179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7">
-        <v>4.355637254901961</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8">
-        <v>4.351934523809524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9">
-        <v>3.87577990626075</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10">
-        <v>4.337841386554622</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
-        <v>2023</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>4.4</v>
-      </c>
-      <c r="F2">
-        <v>4.466666666666667</v>
-      </c>
-      <c r="G2">
-        <v>4.066666666666666</v>
-      </c>
-      <c r="H2">
-        <v>4.266666666666667</v>
-      </c>
-      <c r="I2">
-        <v>4.4</v>
-      </c>
-      <c r="J2">
-        <v>4.4</v>
-      </c>
-      <c r="K2">
-        <v>4.266666666666667</v>
-      </c>
-      <c r="L2">
-        <v>4.466666666666667</v>
-      </c>
-      <c r="M2">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="N2">
-        <v>4.4</v>
-      </c>
-      <c r="O2">
-        <v>4.266666666666667</v>
-      </c>
-      <c r="P2">
-        <v>4.466666666666667</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
-        <v>2023</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>4.4</v>
-      </c>
-      <c r="F3">
-        <v>3.95</v>
-      </c>
-      <c r="G3">
-        <v>4.175</v>
-      </c>
-      <c r="H3">
-        <v>4.2</v>
-      </c>
-      <c r="I3">
-        <v>4.2</v>
-      </c>
-      <c r="J3">
-        <v>4.425</v>
-      </c>
-      <c r="K3">
-        <v>4.35</v>
-      </c>
-      <c r="L3">
-        <v>4.325</v>
-      </c>
-      <c r="M3">
-        <v>4.225</v>
-      </c>
-      <c r="N3">
-        <v>4.075</v>
-      </c>
-      <c r="O3">
-        <v>4.35</v>
-      </c>
-      <c r="P3">
-        <v>4.425</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4">
-        <v>2023</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>4.971428571428572</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>4.971428571428572</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>4.971428571428572</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5">
-        <v>2023</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>3.609243697478992</v>
-      </c>
-      <c r="F5">
-        <v>3.533613445378151</v>
-      </c>
-      <c r="G5">
-        <v>3.588235294117647</v>
-      </c>
-      <c r="H5">
-        <v>3.584033613445378</v>
-      </c>
-      <c r="I5">
-        <v>3.525210084033613</v>
-      </c>
-      <c r="J5">
-        <v>3.600840336134454</v>
-      </c>
-      <c r="K5">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="L5">
-        <v>3.550420168067227</v>
-      </c>
-      <c r="M5">
-        <v>3.546218487394958</v>
-      </c>
-      <c r="N5">
-        <v>3.512605042016807</v>
-      </c>
-      <c r="O5">
-        <v>3.546218487394958</v>
-      </c>
-      <c r="P5">
-        <v>3.571428571428572</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
-        <v>2023</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>4.128571428571429</v>
-      </c>
-      <c r="F6">
-        <v>3.971428571428572</v>
-      </c>
-      <c r="G6">
-        <v>4.257142857142857</v>
-      </c>
-      <c r="H6">
-        <v>4.371428571428571</v>
-      </c>
-      <c r="I6">
-        <v>4.385714285714286</v>
-      </c>
-      <c r="J6">
-        <v>4.228571428571429</v>
-      </c>
-      <c r="K6">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="L6">
-        <v>4.314285714285714</v>
-      </c>
-      <c r="M6">
-        <v>4.342857142857143</v>
-      </c>
-      <c r="N6">
-        <v>4.4</v>
-      </c>
-      <c r="O6">
-        <v>4.357142857142857</v>
-      </c>
-      <c r="P6">
-        <v>4.471428571428572</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7">
-        <v>2023</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>4.260869565217392</v>
-      </c>
-      <c r="F7">
-        <v>4.159420289855072</v>
-      </c>
-      <c r="G7">
-        <v>4.210144927536231</v>
-      </c>
-      <c r="H7">
-        <v>4.202898550724638</v>
-      </c>
-      <c r="I7">
-        <v>4.123188405797102</v>
-      </c>
-      <c r="J7">
-        <v>4.311594202898551</v>
-      </c>
-      <c r="K7">
-        <v>4.231884057971015</v>
-      </c>
-      <c r="L7">
-        <v>4.210144927536231</v>
-      </c>
-      <c r="M7">
-        <v>4.181159420289855</v>
-      </c>
-      <c r="N7">
-        <v>4.043478260869565</v>
-      </c>
-      <c r="O7">
-        <v>4.188405797101449</v>
-      </c>
-      <c r="P7">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -45049,7 +43332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -45138,7 +43421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J29"/>
   <sheetViews>

--- a/feedback_report.xlsx
+++ b/feedback_report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4735" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4770" uniqueCount="144">
   <si>
     <t>Year</t>
   </si>
@@ -40560,13 +40560,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -40613,10 +40613,13 @@
         <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -40662,11 +40665,14 @@
       <c r="O2">
         <v>3.735294117647059</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2">
         <v>3.654411764705883</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -40712,11 +40718,14 @@
       <c r="O3">
         <v>3.147058823529412</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3">
         <v>3.139705882352942</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -40762,11 +40771,14 @@
       <c r="O4">
         <v>3.823529411764706</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4">
         <v>3.936274509803921</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -40812,11 +40824,14 @@
       <c r="O5">
         <v>3.558823529411764</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5">
         <v>3.470588235294117</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -40862,11 +40877,14 @@
       <c r="O6">
         <v>3.852941176470588</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6">
         <v>3.818627450980392</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -40912,11 +40930,14 @@
       <c r="O7">
         <v>4.214285714285714</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7">
         <v>4.089285714285714</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -40962,11 +40983,14 @@
       <c r="O8">
         <v>4.285714285714286</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8">
         <v>4.148809523809525</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -41012,11 +41036,14 @@
       <c r="O9">
         <v>4.428571428571429</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9">
         <v>4.333333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -41062,11 +41089,14 @@
       <c r="O10">
         <v>4.642857142857143</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10">
         <v>4.345238095238095</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -41112,11 +41142,14 @@
       <c r="O11">
         <v>4.785714285714286</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11">
         <v>4.577380952380953</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -41162,11 +41195,14 @@
       <c r="O12">
         <v>3</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12">
         <v>3.194444444444445</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -41212,11 +41248,14 @@
       <c r="O13">
         <v>5</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13">
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -41262,11 +41301,14 @@
       <c r="O14">
         <v>4.333333333333333</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14">
         <v>4.027777777777778</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -41312,11 +41354,14 @@
       <c r="O15">
         <v>3.705882352941177</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15">
         <v>3.75</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -41362,11 +41407,14 @@
       <c r="O16">
         <v>3.631578947368421</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16">
         <v>3.615497076023392</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -41412,11 +41460,14 @@
       <c r="O17">
         <v>5</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17">
         <v>4.966666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -41462,11 +41513,14 @@
       <c r="O18">
         <v>5</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q18">
         <v>4.944444444444445</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -41512,11 +41566,14 @@
       <c r="O19">
         <v>5</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19">
         <v>4.916666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>120</v>
       </c>
@@ -41562,11 +41619,14 @@
       <c r="O20">
         <v>4.521739130434782</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20">
         <v>4.427536231884058</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -41612,11 +41672,14 @@
       <c r="O21">
         <v>4.739130434782608</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q21">
         <v>4.634057971014493</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -41662,11 +41725,14 @@
       <c r="O22">
         <v>2.695652173913043</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22">
         <v>3.02536231884058</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -41712,11 +41778,14 @@
       <c r="O23">
         <v>4.391304347826087</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23">
         <v>4.409420289855071</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -41762,11 +41831,14 @@
       <c r="O24">
         <v>4.347826086956522</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q24">
         <v>4.36231884057971</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -41812,11 +41884,14 @@
       <c r="O25">
         <v>4.625</v>
       </c>
-      <c r="P25">
+      <c r="P25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25">
         <v>4.520833333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -41862,11 +41937,14 @@
       <c r="O26">
         <v>4</v>
       </c>
-      <c r="P26">
+      <c r="P26" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26">
         <v>3.78125</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -41912,11 +41990,14 @@
       <c r="O27">
         <v>4.125</v>
       </c>
-      <c r="P27">
+      <c r="P27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q27">
         <v>4.1875</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -41962,11 +42043,14 @@
       <c r="O28">
         <v>4.875</v>
       </c>
-      <c r="P28">
+      <c r="P28" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28">
         <v>4.614583333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -42012,11 +42096,14 @@
       <c r="O29">
         <v>4.5</v>
       </c>
-      <c r="P29">
+      <c r="P29" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q29">
         <v>4.1875</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>128</v>
       </c>
@@ -42062,11 +42149,14 @@
       <c r="O30">
         <v>5</v>
       </c>
-      <c r="P30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="P30" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>129</v>
       </c>
@@ -42112,11 +42202,14 @@
       <c r="O31">
         <v>4.8</v>
       </c>
-      <c r="P31">
+      <c r="P31" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31">
         <v>4.983333333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>130</v>
       </c>
@@ -42162,11 +42255,14 @@
       <c r="O32">
         <v>5</v>
       </c>
-      <c r="P32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="P32" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -42212,11 +42308,14 @@
       <c r="O33">
         <v>5</v>
       </c>
-      <c r="P33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="P33" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -42262,11 +42361,14 @@
       <c r="O34">
         <v>5</v>
       </c>
-      <c r="P34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="P34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -42312,7 +42414,10 @@
       <c r="O35">
         <v>5</v>
       </c>
-      <c r="P35">
+      <c r="P35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q35">
         <v>5</v>
       </c>
     </row>
